--- a/MNDY.xlsx
+++ b/MNDY.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EE4C2-BD0E-47E2-B3F7-BD73C9B902B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECB786-70DA-4F0B-89A7-DC9072551EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Model-graph" sheetId="3" r:id="rId3"/>
-    <sheet name="Revenue by Segment" sheetId="6" r:id="rId4"/>
+    <sheet name="KPI" sheetId="6" r:id="rId4"/>
     <sheet name="Catalysts" sheetId="4" r:id="rId5"/>
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>Price</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Intangible Assets</t>
   </si>
   <si>
     <t>Total Assets</t>
@@ -316,70 +313,13 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
     <t>Financial Income/Exp</t>
   </si>
   <si>
     <t>PP&amp;E</t>
   </si>
   <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Short-term Investments</t>
-  </si>
-  <si>
-    <t>Prepaid Expense</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Other + deffered Tax</t>
-  </si>
-  <si>
-    <t>Trade receivables</t>
-  </si>
-  <si>
     <t>Right-of-use Asset</t>
-  </si>
-  <si>
-    <t>Defered Tax</t>
-  </si>
-  <si>
-    <t>Accrued Expense</t>
-  </si>
-  <si>
-    <t>Trade Payables</t>
-  </si>
-  <si>
-    <t>Other current</t>
-  </si>
-  <si>
-    <t>Tax liabilities</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Lease</t>
-  </si>
-  <si>
-    <t>Lease Liabilities</t>
-  </si>
-  <si>
-    <t>Debt</t>
-  </si>
-  <si>
-    <t>Deferred Tax</t>
-  </si>
-  <si>
-    <t>Other + Provisions</t>
-  </si>
-  <si>
-    <t>non-GAAP EBITDA</t>
   </si>
   <si>
     <t>Share-based comp</t>
@@ -389,9 +329,6 @@
   </si>
   <si>
     <t>adj. EBITDA Margin</t>
-  </si>
-  <si>
-    <t>Shareholder Loans/Conv Notes</t>
   </si>
   <si>
     <t>MNDY</t>
@@ -503,6 +440,36 @@
   </si>
   <si>
     <t>% of Shares Held by All Insider</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Non-GAAP EPS</t>
+  </si>
+  <si>
+    <t>Prepaid Expense + other</t>
+  </si>
+  <si>
+    <t>Operating Lease</t>
+  </si>
+  <si>
+    <t>Accrued Expense + other</t>
+  </si>
+  <si>
+    <t>Deferred Revenue</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing y/y</t>
+  </si>
+  <si>
+    <t>Non-GAAP Shares</t>
   </si>
 </sst>
 </file>
@@ -691,7 +658,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -748,13 +715,13 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1033,6 +1000,51 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>36460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175679</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>202570</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1063,7 +1075,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$24</c:f>
+              <c:f>Model!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1140,45 +1152,45 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$24:$Q$24</c:f>
+              <c:f>Model!$B$26:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93678003291278111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.94914537941397437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.90548841290734305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.83980533134368862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.75200736387453082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.64895564817268547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.56911403003820182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.4954883545167148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.41999547357700573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.38202829947477235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.3511782872312752</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,13 +1677,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>308150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>519029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>729695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1714,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$24</c:f>
+              <c:f>Model!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1789,7 +1801,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$24:$Y$24</c:f>
+              <c:f>Model!$U$26:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1797,10 +1809,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.6843387960408891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.4058848349514188</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2147,7 +2159,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$13</c:f>
+              <c:f>Model!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2321,54 +2333,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$13:$Q$13</c:f>
+              <c:f>Model!$B$14:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-33065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-45796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-67578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-43566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-32480</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-28846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-32605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-66678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-45671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-23030</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-14667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-7035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7488</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>12337</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2403,7 +2415,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$22</c:f>
+              <c:f>Model!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2480,54 +2492,54 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$22:$Q$22</c:f>
+              <c:f>Model!$B$24:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.86607240811848607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.85131010518407213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.86675840612660049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.86563114698500987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.87101890533172832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.87697848659326894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.8768329059605422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.86535111569905165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.86477311304741433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.86975228828354989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.884212351838635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.89514101173454297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.88891102522213816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.88526349172789254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.88938144838821143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,7 +2883,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$13</c:f>
+              <c:f>Model!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2968,7 +2980,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$13:$Y$13</c:f>
+              <c:f>Model!$U$14:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2976,13 +2988,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-135166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-129461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3326</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3017,7 +3029,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$26</c:f>
+              <c:f>Model!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3092,7 +3104,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$26:$Y$26</c:f>
+              <c:f>Model!$U$29:$Y$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3100,10 +3112,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.2207359839012804E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0256911347819033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,7 +3439,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$25</c:f>
+              <c:f>Model!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3565,11 +3577,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Model!$B$25:$O$25</c15:sqref>
+                    <c15:sqref>Model!$B$28:$O$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Model!$G$25:$O$25</c:f>
+              <c:f>Model!$G$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13473,60 +13485,60 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>69</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="20">
         <v>45337</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N3" s="37"/>
     </row>
@@ -13536,18 +13548,18 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="43"/>
       <c r="L4" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -13555,18 +13567,18 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -13578,18 +13590,18 @@
         <v>220.23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -13599,18 +13611,18 @@
       </c>
       <c r="C7" s="15"/>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -13623,18 +13635,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13643,22 +13655,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!O30+Model!O31+Model!O32</f>
+        <f>Model!O33+Model!O34+Model!O35</f>
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13666,39 +13678,39 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15">
-        <f>Model!O44+Model!O45+Model!O50</f>
-        <v>0</v>
+      <c r="C10" s="15" t="e">
+        <f>Model!O42+Model!O43+Model!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="15">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15" t="e">
         <f>C9-C10</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="38"/>
@@ -13709,15 +13721,15 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="15" t="e">
         <f>C8-C9+C10</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5"/>
@@ -13725,7 +13737,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="36" t="e">
         <f>C6/Model!W20</f>
@@ -13738,7 +13750,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6"/>
       <c r="E14" s="22"/>
@@ -13753,13 +13765,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="36" t="e">
         <f>C6/Model!X21</f>
@@ -13768,14 +13780,14 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="42" t="e">
         <f>C6/Model!Y21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -13788,13 +13800,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13806,21 +13818,21 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -13847,16 +13859,16 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s">
         <v>18</v>
@@ -13871,47 +13883,77 @@
         <v>16</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="15"/>
+      <c r="B3" s="10">
+        <v>36460</v>
+      </c>
+      <c r="C3" s="10">
+        <v>42592</v>
+      </c>
+      <c r="D3" s="10">
+        <v>50142</v>
+      </c>
+      <c r="E3" s="10">
+        <v>58972</v>
+      </c>
+      <c r="F3" s="10">
+        <v>70615</v>
+      </c>
+      <c r="G3" s="10">
+        <v>83018</v>
+      </c>
+      <c r="H3" s="10">
+        <v>95545</v>
+      </c>
+      <c r="I3" s="10">
+        <v>108497</v>
+      </c>
+      <c r="J3" s="10">
+        <v>123718</v>
+      </c>
+      <c r="K3" s="10">
+        <v>136893</v>
+      </c>
+      <c r="L3" s="10">
+        <v>149921</v>
+      </c>
+      <c r="M3" s="10">
+        <v>162256</v>
+      </c>
+      <c r="N3" s="10">
+        <v>175679</v>
+      </c>
+      <c r="O3" s="10">
+        <v>189190</v>
+      </c>
+      <c r="P3" s="15">
+        <v>202570</v>
+      </c>
       <c r="Q3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10">
         <f>SUM(E3:H3)</f>
-        <v>0</v>
+        <v>308150</v>
       </c>
       <c r="W3" s="10">
         <f>SUM(I3:L3)</f>
-        <v>0</v>
+        <v>519029</v>
       </c>
       <c r="X3" s="15">
         <f>SUM(M3:P3)</f>
-        <v>0</v>
+        <v>729695</v>
       </c>
       <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -13937,137 +13979,257 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4883</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6333</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6681</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7924</v>
+      </c>
+      <c r="F5" s="40">
+        <v>9108</v>
+      </c>
+      <c r="G5" s="10">
+        <v>10213</v>
+      </c>
+      <c r="H5" s="10">
+        <v>11768</v>
+      </c>
+      <c r="I5" s="10">
+        <v>14609</v>
+      </c>
+      <c r="J5" s="10">
+        <v>16730</v>
+      </c>
+      <c r="K5" s="10">
+        <v>17830</v>
+      </c>
+      <c r="L5" s="10">
+        <v>17359</v>
+      </c>
+      <c r="M5" s="10">
+        <v>17014</v>
+      </c>
+      <c r="N5" s="10">
+        <v>19516</v>
+      </c>
+      <c r="O5" s="10">
+        <v>21707</v>
+      </c>
+      <c r="P5" s="15">
+        <v>22408</v>
+      </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10">
         <f>SUM(E5:H5)</f>
-        <v>0</v>
+        <v>39013</v>
       </c>
       <c r="W5" s="10">
         <f>SUM(I5:L5)</f>
-        <v>0</v>
+        <v>66528</v>
       </c>
       <c r="X5" s="15">
         <f>SUM(M5:P5)</f>
-        <v>0</v>
+        <v>80645</v>
       </c>
       <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="B6" s="10">
+        <v>12781</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12620</v>
+      </c>
+      <c r="D6" s="10">
+        <v>11428</v>
+      </c>
+      <c r="E6" s="10">
+        <v>15581</v>
+      </c>
+      <c r="F6" s="10">
+        <v>16271</v>
+      </c>
+      <c r="G6" s="10">
+        <v>19875</v>
+      </c>
+      <c r="H6" s="10">
+        <v>21959</v>
+      </c>
+      <c r="I6" s="10">
+        <v>26541</v>
+      </c>
+      <c r="J6" s="10">
+        <v>33962</v>
+      </c>
+      <c r="K6" s="10">
+        <v>33984</v>
+      </c>
+      <c r="L6" s="10">
+        <v>32560</v>
+      </c>
+      <c r="M6" s="10">
+        <v>37063</v>
+      </c>
+      <c r="N6" s="10">
+        <v>39106</v>
+      </c>
+      <c r="O6" s="10">
+        <v>38433</v>
+      </c>
+      <c r="P6" s="15">
+        <v>41898</v>
+      </c>
       <c r="U6" s="10"/>
       <c r="V6" s="10">
         <f t="shared" ref="V6:V10" si="0">SUM(E6:H6)</f>
-        <v>0</v>
+        <v>73686</v>
       </c>
       <c r="W6" s="10">
         <f>SUM(I6:L6)</f>
-        <v>0</v>
+        <v>127047</v>
       </c>
       <c r="X6" s="15">
         <f>SUM(M6:P6)</f>
-        <v>0</v>
+        <v>156500</v>
       </c>
       <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="B7" s="10">
+        <v>39636</v>
+      </c>
+      <c r="C7" s="10">
+        <v>57871</v>
+      </c>
+      <c r="D7" s="10">
+        <v>56901</v>
+      </c>
+      <c r="E7" s="10">
+        <v>63048</v>
+      </c>
+      <c r="F7" s="10">
+        <v>61057</v>
+      </c>
+      <c r="G7" s="10">
+        <v>67443</v>
+      </c>
+      <c r="H7" s="10">
+        <v>76535</v>
+      </c>
+      <c r="I7" s="10">
+        <v>115973</v>
+      </c>
+      <c r="J7" s="10">
+        <v>96740</v>
+      </c>
+      <c r="K7" s="10">
+        <v>90970</v>
+      </c>
+      <c r="L7" s="10">
+        <v>88385</v>
+      </c>
+      <c r="M7" s="10">
+        <v>107680</v>
+      </c>
+      <c r="N7" s="10">
+        <v>107443</v>
+      </c>
+      <c r="O7" s="10">
+        <v>108360</v>
+      </c>
+      <c r="P7" s="15">
+        <v>114919</v>
+      </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>268083</v>
       </c>
       <c r="W7" s="10">
         <f>SUM(I7:L7)</f>
-        <v>0</v>
+        <v>392068</v>
       </c>
       <c r="X7" s="15">
         <f>SUM(M7:P7)</f>
-        <v>0</v>
+        <v>438402</v>
       </c>
       <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7351</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6415</v>
+      </c>
+      <c r="D8" s="10">
+        <v>36828</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10266</v>
+      </c>
+      <c r="F8" s="10">
+        <v>11648</v>
+      </c>
+      <c r="G8" s="10">
+        <v>14698</v>
+      </c>
+      <c r="H8" s="10">
+        <v>16881</v>
+      </c>
+      <c r="I8" s="10">
+        <v>18870</v>
+      </c>
+      <c r="J8" s="10">
+        <v>22466</v>
+      </c>
+      <c r="K8" s="10">
+        <v>22348</v>
+      </c>
+      <c r="L8" s="10">
+        <v>21717</v>
+      </c>
+      <c r="M8" s="10">
+        <v>23251</v>
+      </c>
+      <c r="N8" s="10">
+        <v>21781</v>
+      </c>
+      <c r="O8" s="10">
+        <v>23211</v>
+      </c>
+      <c r="P8" s="15">
+        <v>24490</v>
+      </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53493</v>
       </c>
       <c r="W8" s="10">
         <f>SUM(I8:L8)</f>
-        <v>0</v>
+        <v>85401</v>
       </c>
       <c r="X8" s="15">
         <f>SUM(M8:P8)</f>
-        <v>0</v>
+        <v>92733</v>
       </c>
       <c r="Y8" s="10"/>
     </row>
@@ -14077,63 +14239,63 @@
       </c>
       <c r="B9" s="11">
         <f>B3-B5-B6-B7-B8</f>
-        <v>0</v>
+        <v>-28191</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" ref="C9:P9" si="1">C3-C5-C6-C7-C8</f>
-        <v>0</v>
+        <v>-40647</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-61696</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-37847</v>
       </c>
       <c r="F9" s="11">
         <f>F3-F5-F6-F7-F8</f>
-        <v>0</v>
+        <v>-27469</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-29211</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-31598</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-67496</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-46180</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-28239</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10100</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-22752</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12167</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2521</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1145</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" ref="U9:X9" si="2">U3-U5-U6-U7-U8</f>
@@ -14141,49 +14303,79 @@
       </c>
       <c r="V9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-126125</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-152015</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-38585</v>
       </c>
       <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="B10" s="10">
+        <v>141</v>
+      </c>
+      <c r="C10" s="10">
+        <v>239</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-203</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-406</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-359</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-220</v>
+      </c>
+      <c r="H10" s="10">
+        <v>147</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1993</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2452</v>
+      </c>
+      <c r="K10" s="10">
+        <v>6972</v>
+      </c>
+      <c r="L10" s="10">
+        <v>11137</v>
+      </c>
+      <c r="M10" s="10">
+        <v>9883</v>
+      </c>
+      <c r="N10" s="10">
+        <v>7612</v>
+      </c>
+      <c r="O10" s="10">
+        <v>11555</v>
+      </c>
+      <c r="P10" s="15">
+        <v>12861</v>
+      </c>
       <c r="U10" s="10"/>
       <c r="V10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-838</v>
       </c>
       <c r="W10" s="10">
         <f>SUM(I10:L10)</f>
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="X10" s="15">
         <f>SUM(M10:P10)</f>
-        <v>0</v>
+        <v>41911</v>
       </c>
       <c r="Y10" s="10"/>
     </row>
@@ -14193,63 +14385,63 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" ref="B11:P11" si="3">B9+B10</f>
-        <v>0</v>
+        <v>-28050</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-40408</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-61899</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-38253</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-27828</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-29431</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-31451</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-65503</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-43728</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-21267</v>
       </c>
       <c r="L11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-12869</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4555</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9034</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" ref="U11:X11" si="4">U9+U10</f>
@@ -14257,266 +14449,247 @@
       </c>
       <c r="V11" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-126963</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-129461</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="4"/>
+        <v>3326</v>
+      </c>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="55">
+        <v>-350</v>
+      </c>
+      <c r="C12" s="55">
+        <v>-671</v>
+      </c>
+      <c r="D12" s="55">
+        <v>-962</v>
+      </c>
+      <c r="E12" s="55">
+        <v>-699</v>
+      </c>
+      <c r="F12" s="55">
+        <v>-1063</v>
+      </c>
+      <c r="G12" s="55">
+        <v>585</v>
+      </c>
+      <c r="H12" s="10">
+        <v>-1154</v>
+      </c>
+      <c r="I12" s="55">
+        <v>-1175</v>
+      </c>
+      <c r="J12" s="55">
+        <v>-1943</v>
+      </c>
+      <c r="K12" s="55">
+        <v>-1763</v>
+      </c>
+      <c r="L12" s="55">
+        <v>-2525</v>
+      </c>
+      <c r="M12" s="55">
+        <v>-1798</v>
+      </c>
+      <c r="N12" s="55">
+        <v>-2480</v>
+      </c>
+      <c r="O12" s="55">
+        <v>-1546</v>
+      </c>
+      <c r="P12" s="56">
+        <v>621</v>
+      </c>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="55"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="10">
+        <v>-4665</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-4717</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-4717</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-4614</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-3589</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="15"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10">
+        <f>SUM(E13:H13)</f>
+        <v>-8203</v>
+      </c>
+      <c r="W13" s="10">
+        <f>SUM(I13:L13)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="15"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10">
-        <f>SUM(E12:H12)</f>
+      <c r="X13" s="15">
+        <f>SUM(M13:P13)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="10">
-        <f>SUM(I12:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="15">
-        <f>SUM(M12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11">
-        <f t="shared" ref="B13:Q13" si="5">B11+B12</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B14" s="11">
+        <f>B11+B12+B13</f>
+        <v>-33065</v>
+      </c>
+      <c r="C14" s="11">
+        <f>C11+C12+C13</f>
+        <v>-45796</v>
+      </c>
+      <c r="D14" s="11">
+        <f>D11+D12+D13</f>
+        <v>-67578</v>
+      </c>
+      <c r="E14" s="11">
+        <f>E11+E12+E13</f>
+        <v>-43566</v>
+      </c>
+      <c r="F14" s="11">
+        <f>F11+F12+F13</f>
+        <v>-32480</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" ref="G14:Q14" si="5">G11+G12+G13</f>
+        <v>-28846</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="5"/>
+        <v>-32605</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="5"/>
+        <v>-66678</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="5"/>
+        <v>-45671</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="5"/>
+        <v>-23030</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="5"/>
+        <v>-1488</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="5"/>
+        <v>-14667</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="5"/>
+        <v>-7035</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="5"/>
+        <v>7488</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="5"/>
+        <v>12337</v>
+      </c>
+      <c r="Q14" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" si="5"/>
+      <c r="R14" s="11"/>
+      <c r="U14" s="11">
+        <f t="shared" ref="U14:Y14" si="6">U11+U13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="U13" s="11">
-        <f t="shared" ref="U13:Y13" si="6">U11+U12</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
+      <c r="V14" s="11">
+        <f t="shared" si="6"/>
+        <v>-135166</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="6"/>
+        <v>-129461</v>
+      </c>
+      <c r="X14" s="14">
+        <f t="shared" si="6"/>
+        <v>3326</v>
+      </c>
+      <c r="Y14" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W13" s="11">
-        <f t="shared" si="6"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47">
+        <v>17558</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47">
+        <f>SUM(I15:L15)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="14">
-        <f t="shared" si="6"/>
+      <c r="X15" s="50">
+        <f>SUM(M15:P15)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47">
-        <f>SUM(I14:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="50">
-        <f>SUM(M14:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="47"/>
-    </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="49">
-        <f>B13+B14-B12-B10</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="49">
-        <f>C13+C14-C12-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="49">
-        <f t="shared" ref="D15:N15" si="7">D13+D14-D12-D10</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="49">
-        <f>O13+O14-O12-O10</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="51">
-        <f>P13+P14-P12-P10</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49">
-        <f t="shared" ref="U15:X15" si="8">U13+U14-U12-U10</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="49"/>
+      <c r="Y15" s="47"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -14549,130 +14722,152 @@
       </c>
       <c r="Y16" s="47"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47">
-        <f>SUM(I17:L17)</f>
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="49">
+        <f>B15+B16</f>
         <v>0</v>
       </c>
-      <c r="X17" s="50">
-        <f>SUM(M17:P17)</f>
+      <c r="C17" s="49">
+        <f t="shared" ref="C17:P17" si="7">C15+C16</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="47"/>
-    </row>
-    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="49">
-        <f>B15+B16+B17</f>
+      <c r="D17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="C18" s="49">
-        <f t="shared" ref="C18:P18" si="9">C15+C16+C17</f>
+      <c r="E17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D18" s="49">
-        <f t="shared" si="9"/>
+      <c r="F17" s="49">
+        <f>F11++F12+F15+F16</f>
+        <v>-11333</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E18" s="49">
-        <f t="shared" si="9"/>
+      <c r="H17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F18" s="49">
-        <f t="shared" si="9"/>
+      <c r="I17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="49">
-        <f t="shared" si="9"/>
+      <c r="J17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H18" s="49">
-        <f t="shared" si="9"/>
+      <c r="K17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I18" s="49">
-        <f t="shared" si="9"/>
+      <c r="L17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J18" s="49">
-        <f t="shared" si="9"/>
+      <c r="M17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K18" s="49">
-        <f t="shared" si="9"/>
+      <c r="N17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="49">
-        <f t="shared" si="9"/>
+      <c r="O17" s="49">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M18" s="49">
-        <f t="shared" si="9"/>
+      <c r="P17" s="51">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N18" s="49">
-        <f t="shared" si="9"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49">
+        <f t="shared" ref="U17:X17" si="8">U15+U16</f>
         <v>0</v>
       </c>
-      <c r="O18" s="49">
-        <f t="shared" si="9"/>
+      <c r="V17" s="49">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P18" s="51">
-        <f t="shared" si="9"/>
+      <c r="W17" s="49">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49">
-        <f t="shared" ref="U18:X18" si="10">U15+U16+U17</f>
+      <c r="X17" s="49">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V18" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="49"/>
+      <c r="Y17" s="49"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10">
+        <v>11836</v>
+      </c>
+      <c r="C18" s="10">
+        <v>12240</v>
+      </c>
+      <c r="D18" s="10">
+        <v>12334</v>
+      </c>
+      <c r="E18" s="10">
+        <v>12392</v>
+      </c>
+      <c r="F18" s="10">
+        <v>19417</v>
+      </c>
+      <c r="G18" s="10">
+        <v>44267</v>
+      </c>
+      <c r="H18" s="10">
+        <v>44741</v>
+      </c>
+      <c r="I18" s="10">
+        <v>44978</v>
+      </c>
+      <c r="J18" s="10">
+        <v>45074</v>
+      </c>
+      <c r="K18" s="10">
+        <v>45477</v>
+      </c>
+      <c r="L18" s="10">
+        <v>47659</v>
+      </c>
+      <c r="M18" s="10">
+        <v>47912</v>
+      </c>
+      <c r="N18" s="10">
+        <v>48209</v>
+      </c>
+      <c r="O18" s="10">
+        <v>48536</v>
+      </c>
+      <c r="P18" s="15">
+        <v>48796</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -14702,84 +14897,88 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.01</v>
+        <f>B14/B18</f>
+        <v>-2.7935958093950659</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="D20" s="2" t="e">
-        <f>D13/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <f>E13/E19</f>
-        <v>#DIV/0!</v>
+        <f>C14/C18</f>
+        <v>-3.7415032679738562</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D14/D18</f>
+        <v>-5.4790011350737799</v>
+      </c>
+      <c r="E20" s="2">
+        <f>E14/E18</f>
+        <v>-3.5156552614590058</v>
       </c>
       <c r="F20" s="2">
-        <v>-0.11</v>
+        <f>F14/F18</f>
+        <v>-1.6727609826440748</v>
       </c>
       <c r="G20" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H20" s="2" t="e">
-        <f>H13/H19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="2" t="e">
-        <f>I13/I19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="2" t="e">
-        <f t="shared" ref="J20:P20" si="11">J13/J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="35" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <f>G14/G18</f>
+        <v>-0.65163665936250481</v>
+      </c>
+      <c r="H20" s="2">
+        <f>H14/H18</f>
+        <v>-0.72874991618426055</v>
+      </c>
+      <c r="I20" s="2">
+        <f>I14/I18</f>
+        <v>-1.4824580906220819</v>
+      </c>
+      <c r="J20" s="2">
+        <f>J14/J18</f>
+        <v>-1.0132448861871588</v>
+      </c>
+      <c r="K20" s="2">
+        <f>K14/K18</f>
+        <v>-0.50640983354223013</v>
+      </c>
+      <c r="L20" s="2">
+        <f>L14/L18</f>
+        <v>-3.1221804905684131E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <f>M14/M18</f>
+        <v>-0.30612372683252631</v>
+      </c>
+      <c r="N20" s="2">
+        <f>N14/N18</f>
+        <v>-0.14592710904602876</v>
+      </c>
+      <c r="O20" s="2">
+        <f>O14/O18</f>
+        <v>0.15427723751442229</v>
+      </c>
+      <c r="P20" s="35">
+        <f>P14/P18</f>
+        <v>0.25282810066398886</v>
       </c>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="U20" s="2" t="e">
-        <f>U13/U19</f>
+        <f>U14/U18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V20" s="2" t="e">
-        <f>V13/V19</f>
+        <f>V14/V18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W20" s="2" t="e">
-        <f>W13/W19</f>
+        <f>W14/W18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X20" s="35" t="e">
-        <f>X13/X19</f>
+        <f>X14/X18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -14805,578 +15004,644 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="e">
+      <c r="A22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="41">
+        <f>B17/B18</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="41">
+        <f t="shared" ref="C22:P22" si="9">C17/C18</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="41">
+        <f>F17/F18</f>
+        <v>-0.58366379976309424</v>
+      </c>
+      <c r="G22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3">
         <f>1-B5/B3</f>
+        <v>0.86607240811848607</v>
+      </c>
+      <c r="C24" s="3">
+        <f>1-C5/C3</f>
+        <v>0.85131010518407213</v>
+      </c>
+      <c r="D24" s="3">
+        <f>1-D5/D3</f>
+        <v>0.86675840612660049</v>
+      </c>
+      <c r="E24" s="3">
+        <f>1-E5/E3</f>
+        <v>0.86563114698500987</v>
+      </c>
+      <c r="F24" s="3">
+        <f>1-F5/F3</f>
+        <v>0.87101890533172832</v>
+      </c>
+      <c r="G24" s="3">
+        <f>1-G5/G3</f>
+        <v>0.87697848659326894</v>
+      </c>
+      <c r="H24" s="3">
+        <f>1-H5/H3</f>
+        <v>0.8768329059605422</v>
+      </c>
+      <c r="I24" s="3">
+        <f>1-I5/I3</f>
+        <v>0.86535111569905165</v>
+      </c>
+      <c r="J24" s="3">
+        <f>1-J5/J3</f>
+        <v>0.86477311304741433</v>
+      </c>
+      <c r="K24" s="3">
+        <f>1-K5/K3</f>
+        <v>0.86975228828354989</v>
+      </c>
+      <c r="L24" s="3">
+        <f>1-L5/L3</f>
+        <v>0.884212351838635</v>
+      </c>
+      <c r="M24" s="3">
+        <f>1-M5/M3</f>
+        <v>0.89514101173454297</v>
+      </c>
+      <c r="N24" s="3">
+        <f>1-N5/N3</f>
+        <v>0.88891102522213816</v>
+      </c>
+      <c r="O24" s="39">
+        <f>1-O5/O3</f>
+        <v>0.88526349172789254</v>
+      </c>
+      <c r="P24" s="6">
+        <f>1-P5/P3</f>
+        <v>0.88938144838821143</v>
+      </c>
+      <c r="U24" s="3" t="e">
+        <f>1-U5/U3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C22" s="3" t="e">
-        <f>1-C5/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="3" t="e">
-        <f>1-D5/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="3" t="e">
-        <f>1-E5/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="3" t="e">
-        <f>1-F5/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="3" t="e">
-        <f t="shared" ref="G22:P22" si="12">1-G5/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="39" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="6" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="3" t="e">
-        <f t="shared" ref="U22:W22" si="13">1-U5/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="6" t="e">
+      <c r="V24" s="3">
+        <f>1-V5/V3</f>
+        <v>0.87339607334090541</v>
+      </c>
+      <c r="W24" s="3">
+        <f>1-W5/W3</f>
+        <v>0.87182219105290848</v>
+      </c>
+      <c r="X24" s="6">
         <f>1-X5/X3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="e">
-        <f t="shared" ref="B23:P23" si="14">B13/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="4" t="e">
-        <f>U13/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="4" t="e">
-        <f>V13/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" s="4" t="e">
-        <f>W13/W3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="7" t="e">
-        <f>X13/X3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="e">
-        <f t="shared" ref="F24:N24" si="15">F3/B3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="4" t="e">
-        <f>O3/K3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="7" t="e">
-        <f>P3/L3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="4" t="e">
-        <f>Q4/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3" t="e">
-        <f>V3/U3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="39" t="e">
-        <f>W3/V3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="6" t="e">
-        <f>X3/W3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="4" t="e">
-        <f>Y4/U3-1</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.88948122160628751</v>
+      </c>
+      <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="3" t="e">
-        <f>B18/B3</f>
+        <v>32</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B14/B3</f>
+        <v>-0.90688425671969286</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C14/C3</f>
+        <v>-1.0752253944402705</v>
+      </c>
+      <c r="D25" s="4">
+        <f>D14/D3</f>
+        <v>-1.3477324398707671</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E14/E3</f>
+        <v>-0.73875737638201178</v>
+      </c>
+      <c r="F25" s="4">
+        <f>F14/F3</f>
+        <v>-0.45995893223819301</v>
+      </c>
+      <c r="G25" s="4">
+        <f>G14/G3</f>
+        <v>-0.3474668144257872</v>
+      </c>
+      <c r="H25" s="4">
+        <f>H14/H3</f>
+        <v>-0.34125281281071745</v>
+      </c>
+      <c r="I25" s="4">
+        <f>I14/I3</f>
+        <v>-0.61456077126556496</v>
+      </c>
+      <c r="J25" s="4">
+        <f>J14/J3</f>
+        <v>-0.36915404387397144</v>
+      </c>
+      <c r="K25" s="4">
+        <f>K14/K3</f>
+        <v>-0.16823358389399021</v>
+      </c>
+      <c r="L25" s="4">
+        <f>L14/L3</f>
+        <v>-9.9252272863708212E-3</v>
+      </c>
+      <c r="M25" s="4">
+        <f>M14/M3</f>
+        <v>-9.0394191894290501E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <f>N14/N3</f>
+        <v>-4.0044626847830417E-2</v>
+      </c>
+      <c r="O25" s="4">
+        <f>O14/O3</f>
+        <v>3.9579258946033091E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <f>P14/P3</f>
+        <v>6.0902404107222197E-2</v>
+      </c>
+      <c r="U25" s="4" t="e">
+        <f>U14/U3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="3" t="e">
-        <f t="shared" ref="C25:O25" si="16">C18/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="39" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="6" t="e">
-        <f>P18/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="39" t="e">
-        <f t="shared" ref="V25:W25" si="17">V18/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="39" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="6" t="e">
-        <f>X18/X3</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="V25" s="4">
+        <f>V14/V3</f>
+        <v>-0.43863702742171018</v>
+      </c>
+      <c r="W25" s="4">
+        <f>W14/W3</f>
+        <v>-0.24942922264459211</v>
+      </c>
+      <c r="X25" s="7">
+        <f>X14/X3</f>
+        <v>4.5580687821624105E-3</v>
+      </c>
+      <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="e">
-        <f t="shared" ref="F26:P26" si="18">F13/B13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="4" t="e">
-        <f>G13/C13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4" t="e">
-        <f>N13/J13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="4"/>
+      <c r="F26" s="4">
+        <f>F3/B3-1</f>
+        <v>0.93678003291278111</v>
+      </c>
+      <c r="G26" s="4">
+        <f>G3/C3-1</f>
+        <v>0.94914537941397437</v>
+      </c>
+      <c r="H26" s="4">
+        <f>H3/D3-1</f>
+        <v>0.90548841290734305</v>
+      </c>
+      <c r="I26" s="4">
+        <f>I3/E3-1</f>
+        <v>0.83980533134368862</v>
+      </c>
+      <c r="J26" s="4">
+        <f>J3/F3-1</f>
+        <v>0.75200736387453082</v>
+      </c>
+      <c r="K26" s="4">
+        <f>K3/G3-1</f>
+        <v>0.64895564817268547</v>
+      </c>
+      <c r="L26" s="4">
+        <f>L3/H3-1</f>
+        <v>0.56911403003820182</v>
+      </c>
+      <c r="M26" s="4">
+        <f>M3/I3-1</f>
+        <v>0.4954883545167148</v>
+      </c>
+      <c r="N26" s="4">
+        <f>N3/J3-1</f>
+        <v>0.41999547357700573</v>
+      </c>
+      <c r="O26" s="4">
+        <f>O3/K3-1</f>
+        <v>0.38202829947477235</v>
+      </c>
+      <c r="P26" s="7">
+        <f>P3/L3-1</f>
+        <v>0.3511782872312752</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>Q4/M3-1</f>
+        <v>-1</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="e">
-        <f t="shared" ref="V26:X26" si="19">-(V13/U13-1)</f>
+        <f>V3/U3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W26" s="39" t="e">
-        <f t="shared" si="19"/>
+      <c r="W26" s="39">
+        <f>W3/V3-1</f>
+        <v>0.6843387960408891</v>
+      </c>
+      <c r="X26" s="6">
+        <f>X3/W3-1</f>
+        <v>0.4058848349514188</v>
+      </c>
+      <c r="Y26" s="4" t="e">
+        <f>Y4/U3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="6" t="e">
-        <f t="shared" si="19"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3">
+        <f>F7/F3</f>
+        <v>0.86464632160305888</v>
+      </c>
+      <c r="G27" s="3">
+        <f>G7/G3</f>
+        <v>0.81239008407815172</v>
+      </c>
+      <c r="H27" s="3">
+        <f>H7/H3</f>
+        <v>0.80103616097127006</v>
+      </c>
+      <c r="I27" s="3">
+        <f>I7/I3</f>
+        <v>1.0689051310174476</v>
+      </c>
+      <c r="J27" s="3">
+        <f>J7/J3</f>
+        <v>0.78193957225302702</v>
+      </c>
+      <c r="K27" s="3">
+        <f>K7/K3</f>
+        <v>0.66453361384438936</v>
+      </c>
+      <c r="L27" s="3">
+        <f>L7/L3</f>
+        <v>0.58954382641524539</v>
+      </c>
+      <c r="M27" s="3">
+        <f>M7/M3</f>
+        <v>0.66364263879301844</v>
+      </c>
+      <c r="N27" s="3">
+        <f>N7/N3</f>
+        <v>0.61158704227596927</v>
+      </c>
+      <c r="O27" s="3">
+        <f>O7/O3</f>
+        <v>0.57275754532480572</v>
+      </c>
+      <c r="P27" s="3">
+        <f>P7/P3</f>
+        <v>0.56730512909117836</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B17/B3</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C17/C3</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D17/D3</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f>E17/E3</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f>F17/F3</f>
+        <v>-0.16048998088224881</v>
+      </c>
+      <c r="G28" s="3">
+        <f>G17/G3</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <f>H17/H3</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f>I17/I3</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f>J17/J3</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>K17/K3</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f>L17/L3</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f>M17/M3</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <f>N17/N3</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="39">
+        <f>O17/O3</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <f>P17/P3</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="39">
+        <f>V17/V3</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="39">
+        <f>W17/W3</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <f>X17/X3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <f>F14/B14-1</f>
+        <v>-1.7692424013307173E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <f>G14/C14-1</f>
+        <v>-0.37011966110577343</v>
+      </c>
+      <c r="H29" s="4">
+        <f>H14/D14-1</f>
+        <v>-0.51752049483559737</v>
+      </c>
+      <c r="I29" s="4">
+        <f>I14/E14-1</f>
+        <v>0.53050544002203548</v>
+      </c>
+      <c r="J29" s="4">
+        <f>J14/F14-1</f>
+        <v>0.4061268472906403</v>
+      </c>
+      <c r="K29" s="4">
+        <f>K14/G14-1</f>
+        <v>-0.2016224086528462</v>
+      </c>
+      <c r="L29" s="4">
+        <f>L14/H14-1</f>
+        <v>-0.9543628277871492</v>
+      </c>
+      <c r="M29" s="4">
+        <f>M14/I14-1</f>
+        <v>-0.78003239449293615</v>
+      </c>
+      <c r="N29" s="4">
+        <f>N14/J14-1</f>
+        <v>-0.84596352170961886</v>
+      </c>
+      <c r="O29" s="4">
+        <f>O14/K14-1</f>
+        <v>-1.3251411202778984</v>
+      </c>
+      <c r="P29" s="7">
+        <f>P14/L14-1</f>
+        <v>-9.290994623655914</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="e">
+        <f>-(V14/U14-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="39"/>
-    </row>
-    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="11">
-        <f t="shared" ref="B29:E29" si="20">B30+B31+B32-B44-B45-B48-B47-B46-B49-B53</f>
+      <c r="W29" s="39">
+        <f>-(W14/V14-1)</f>
+        <v>4.2207359839012804E-2</v>
+      </c>
+      <c r="X29" s="6">
+        <f>-(X14/W14-1)</f>
+        <v>1.0256911347819033</v>
+      </c>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="11">
+        <f>B33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="11">
-        <f t="shared" si="20"/>
+      <c r="C32" s="11">
+        <f t="shared" ref="C32:P32" si="10">C33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" si="20"/>
+      <c r="D32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="20"/>
+      <c r="E32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F29" s="11">
-        <f>F30+F31+F32-F44-F45-F48-F47-F46-F49-F53</f>
+      <c r="F32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G29" s="11">
-        <f t="shared" ref="G29:P29" si="21">G30+G31+G32-G44-G45-G48-G47-G46-G49-G53</f>
+      <c r="G32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H29" s="11">
-        <f t="shared" si="21"/>
+      <c r="H32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <f t="shared" si="21"/>
+      <c r="I32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J29" s="11">
-        <f t="shared" si="21"/>
+      <c r="J32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K29" s="11">
-        <f t="shared" si="21"/>
+      <c r="K32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L29" s="11">
-        <f>L30+L31+L32-L44-L45-L48-L47-L46-L49-L53</f>
+      <c r="L32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" si="21"/>
+      <c r="M32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" si="21"/>
+      <c r="N32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O29" s="11">
-        <f t="shared" si="21"/>
+      <c r="O32" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P29" s="14">
-        <f t="shared" si="21"/>
+      <c r="P32" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U29" s="11">
-        <f t="shared" ref="U29:W29" si="22">U30+U31+U32-U44-U45-U48-U47-U46-U49-U53</f>
+      <c r="U32" s="11">
+        <f t="shared" ref="U32:X32" si="11">U33</f>
         <v>0</v>
       </c>
-      <c r="V29" s="11">
-        <f t="shared" si="22"/>
+      <c r="V32" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W29" s="11">
-        <f t="shared" si="22"/>
+      <c r="W32" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X29" s="16"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="U30" s="10">
-        <f>D30</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="10">
-        <f>H30</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="10">
-        <f>L30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="U31" s="10">
-        <f t="shared" ref="U31:U55" si="23">D31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="10">
-        <f t="shared" ref="V31:V55" si="24">H31</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="10">
-        <f>L31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="U32" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="10">
-        <f t="shared" ref="W32:W55" si="25">L32</f>
+      <c r="X32" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -15393,21 +15658,21 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="U33" s="10">
-        <f t="shared" si="23"/>
+        <f>D33</f>
         <v>0</v>
       </c>
       <c r="V33" s="10">
-        <f t="shared" si="24"/>
+        <f>H33</f>
         <v>0</v>
       </c>
       <c r="W33" s="10">
-        <f t="shared" si="25"/>
+        <f>L33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -15424,21 +15689,21 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="U34" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="U34:U48" si="12">D34</f>
         <v>0</v>
       </c>
       <c r="V34" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="V34:V48" si="13">H34</f>
         <v>0</v>
       </c>
       <c r="W34" s="10">
-        <f t="shared" si="25"/>
+        <f>L34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -15455,127 +15720,127 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="U35" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W35" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="W35:W48" si="14">L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="U36" s="10">
-        <f t="shared" si="23"/>
+    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="11">
+        <f>SUM(B33:B35)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="10">
-        <f t="shared" si="24"/>
+      <c r="C36" s="11">
+        <f>SUM(C33:C35)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="10">
-        <f t="shared" si="25"/>
+      <c r="D36" s="11">
+        <f>SUM(D33:D35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:O37" si="26">SUM(B30:B36)</f>
+      <c r="E36" s="11">
+        <f>SUM(E33:E35)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="11">
-        <f t="shared" si="26"/>
+      <c r="F36" s="11">
+        <f>SUM(F33:F35)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="11">
-        <f t="shared" si="26"/>
+      <c r="G36" s="11">
+        <f>SUM(G33:G35)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="11">
-        <f t="shared" si="26"/>
+      <c r="H36" s="11">
+        <f>SUM(H33:H35)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="11">
-        <f t="shared" si="26"/>
+      <c r="I36" s="11">
+        <f>SUM(I33:I35)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="11">
-        <f t="shared" si="26"/>
+      <c r="J36" s="11">
+        <f>SUM(J33:J35)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="11">
-        <f t="shared" si="26"/>
+      <c r="K36" s="11">
+        <f>SUM(K33:K35)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="11">
-        <f t="shared" si="26"/>
+      <c r="L36" s="11">
+        <f>SUM(L33:L35)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="11">
-        <f t="shared" si="26"/>
+      <c r="M36" s="11">
+        <f>SUM(M33:M35)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="11">
-        <f t="shared" si="26"/>
+      <c r="N36" s="11">
+        <f>SUM(N33:N35)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="11">
-        <f t="shared" si="26"/>
+      <c r="O36" s="11">
+        <f>SUM(O33:O35)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="11">
-        <f t="shared" si="26"/>
+      <c r="P36" s="16"/>
+      <c r="U36" s="11">
+        <f>SUM(U33:U35)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="11">
-        <f t="shared" si="26"/>
+      <c r="V36" s="11">
+        <f>SUM(V33:V35)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="11">
-        <f t="shared" si="26"/>
+      <c r="W36" s="11">
+        <f>SUM(W33:W35)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="16"/>
-      <c r="U37" s="11">
-        <f t="shared" ref="U37" si="27">SUM(U30:U36)</f>
+      <c r="X36" s="16"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="U37" s="10">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V37" s="11">
-        <f t="shared" ref="V37" si="28">SUM(V30:V36)</f>
+      <c r="V37" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W37" s="11">
-        <f t="shared" ref="W37" si="29">SUM(W30:W36)</f>
+      <c r="W37" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -15592,21 +15857,21 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="U38" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -15623,21 +15888,21 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="U39" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -15654,52 +15919,94 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="U40" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="U41" s="10">
-        <f t="shared" si="23"/>
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="11">
+        <f>SUM(B36:B40)</f>
         <v>0</v>
       </c>
-      <c r="V41" s="10">
-        <f t="shared" si="24"/>
+      <c r="C41" s="11">
+        <f>SUM(C36:C40)</f>
         <v>0</v>
       </c>
-      <c r="W41" s="10">
-        <f t="shared" si="25"/>
+      <c r="D41" s="11">
+        <f>SUM(D36:D40)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="11">
+        <f>SUM(E36:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <f>SUM(F36:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <f>SUM(G36:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <f>SUM(H36:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <f>SUM(I36:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <f>SUM(J36:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <f>SUM(K36:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <f>SUM(L36:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <f>SUM(M36:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <f>SUM(N36:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="11">
+        <f>SUM(O36:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="11">
+        <f>SUM(U36:U40)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="11">
+        <f>SUM(V36:V40)</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="11">
+        <f>SUM(W36:W40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -15715,97 +16022,53 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="16"/>
       <c r="U42" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X42" s="16"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="11">
-        <f t="shared" ref="B43:O43" si="30">SUM(B37:B42)</f>
+      <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="U43" s="10">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C43" s="11">
-        <f t="shared" si="30"/>
+      <c r="V43" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="11">
-        <f>SUM(U37:U42)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="11">
-        <f>SUM(V37:V42)</f>
-        <v>0</v>
-      </c>
-      <c r="W43" s="11">
-        <f>SUM(W37:W42)</f>
+      <c r="W43" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -15822,21 +16085,21 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="U44" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -15853,52 +16116,100 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="U45" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="U46" s="10">
-        <f t="shared" si="23"/>
+    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="11">
+        <f>SUM(B42:B45)</f>
         <v>0</v>
       </c>
-      <c r="V46" s="10">
-        <f t="shared" si="24"/>
+      <c r="C46" s="11">
+        <f>SUM(C42:C45)</f>
         <v>0</v>
       </c>
-      <c r="W46" s="10">
-        <f t="shared" si="25"/>
+      <c r="D46" s="11">
+        <f>SUM(D42:D45)</f>
         <v>0</v>
       </c>
+      <c r="E46" s="11">
+        <f>SUM(E42:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f>SUM(F42:F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <f>SUM(G42:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f>SUM(H42:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <f>SUM(I42:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <f>SUM(J42:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <f>SUM(K42:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <f>SUM(L42:L45)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f>SUM(M42:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f>SUM(N42:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f>SUM(O42:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11">
+        <f>SUM(U42:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <f>SUM(V42:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <f>SUM(W42:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="16"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -15915,21 +16226,21 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="U47" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -15946,386 +16257,156 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="U48" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="U49" s="10">
-        <f t="shared" si="23"/>
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="11">
+        <f>SUM(B46:B48)</f>
         <v>0</v>
       </c>
-      <c r="V49" s="10">
-        <f t="shared" si="24"/>
+      <c r="C49" s="11">
+        <f>SUM(C46:C48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="10">
-        <f t="shared" si="25"/>
+      <c r="D49" s="11">
+        <f>SUM(D46:D48)</f>
         <v>0</v>
       </c>
+      <c r="E49" s="11">
+        <f>SUM(E46:E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <f>SUM(F46:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <f>SUM(G46:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <f>SUM(H46:H48)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <f>SUM(I46:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <f>SUM(J46:J48)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <f>SUM(K46:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <f>SUM(L46:L48)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <f>SUM(M46:M48)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <f>SUM(N46:N48)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="11">
+        <f>SUM(O46:O48)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="11">
+        <f>SUM(U46:U48)</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="11">
+        <f>SUM(V46:V48)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="11">
+        <f>SUM(W46:W48)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="U50" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="11">
-        <f t="shared" ref="B51:O51" si="31">SUM(B44:B50)</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <f>SUM(I44:I50)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11">
-        <f t="shared" ref="U51" si="32">SUM(U44:U50)</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="11">
-        <f t="shared" ref="V51" si="33">SUM(V44:V50)</f>
-        <v>0</v>
-      </c>
-      <c r="W51" s="11">
-        <f t="shared" ref="W51" si="34">SUM(W44:W50)</f>
-        <v>0</v>
-      </c>
-      <c r="X51" s="16"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="U52" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+    </row>
+    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="16"/>
+      <c r="X52" s="16"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="U53" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="U54" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="U55" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="11">
-        <f t="shared" ref="B56:O56" si="35">SUM(B51:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <f>SUM(L51:L55)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="11">
-        <f t="shared" ref="U56:W56" si="36">SUM(U51:U55)</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
+      <c r="A56" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-    </row>
-    <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P59" s="16"/>
-      <c r="X59" s="16"/>
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
@@ -16335,77 +16416,42 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="70" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="P70" s="52"/>
+      <c r="X70" s="52"/>
+    </row>
+    <row r="71" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P77" s="53"/>
-      <c r="X77" s="53"/>
-    </row>
-    <row r="78" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P78" s="16"/>
-      <c r="X78" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="X71" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16421,8 +16467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16465,10 +16511,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -16479,13 +16525,13 @@
         <v>178.86999499999999</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
         <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -16499,7 +16545,7 @@
         <v>45328</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="12"/>
     </row>
@@ -16514,7 +16560,7 @@
         <v>45302</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="12"/>
     </row>

--- a/MNDY.xlsx
+++ b/MNDY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F79E063-66B3-47AC-8918-579B313A3381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB3757-0F0D-4A01-A989-07D57A9E33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,8 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId5"/>
     <sheet name="DoR" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DoR!$B$1:$C$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$22</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$B$21:$Q$21</definedName>
@@ -656,7 +654,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1344,7 +1342,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1404,23 +1402,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1433,13 +1416,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1447,41 +1430,20 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1520,6 +1482,36 @@
     <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -12033,136 +12025,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-      <sheetName val="BTC(Daily)"/>
-      <sheetName val="Ratio Speads"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>Frequency</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Less than -38,77%</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>-38,77% to -30,89%</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>-30,89% to -23,01%</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>10</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>-23,01% to -15,13%</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>33</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>-15,13% to -7,25%</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>44</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>-7,25% to 0,63%</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>33</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>0,63% to 8,51%</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>18</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>8,51% to 16,39%</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>9</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>16,39% to 24,26%</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>3</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>24,26% to 32,14%</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>32,14% to 40,02%</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>3</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>Greater than 40,02%</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12855,7 +12717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13436,19 +13298,19 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="14"/>
-      <c r="U10" s="54">
+      <c r="U10" s="11">
         <f>U9+U16</f>
         <v>-70679</v>
       </c>
-      <c r="V10" s="54">
+      <c r="V10" s="11">
         <f>V9+V16</f>
         <v>-86192</v>
       </c>
-      <c r="W10" s="54">
-        <f t="shared" ref="V10:X10" si="3">W9+W16</f>
+      <c r="W10" s="11">
+        <f t="shared" ref="W10:X10" si="3">W9+W16</f>
         <v>-52596</v>
       </c>
-      <c r="X10" s="54">
+      <c r="X10" s="11">
         <f t="shared" si="3"/>
         <v>-47095</v>
       </c>
@@ -13790,19 +13652,19 @@
         <v>0</v>
       </c>
       <c r="R15" s="11"/>
-      <c r="U15" s="54">
+      <c r="U15" s="11">
         <f>U12+U14+U13</f>
         <v>-91611</v>
       </c>
-      <c r="V15" s="54">
+      <c r="V15" s="11">
         <f>V12+V14+V13</f>
         <v>-152203</v>
       </c>
-      <c r="W15" s="54">
+      <c r="W15" s="11">
         <f>W12+W14+W13</f>
         <v>-129294</v>
       </c>
-      <c r="X15" s="54">
+      <c r="X15" s="11">
         <f>X12+X14+X13</f>
         <v>-136867</v>
       </c>
@@ -13811,7 +13673,7 @@
         <v>-1877</v>
       </c>
       <c r="Z15" s="11">
-        <f t="shared" ref="V15:Z15" si="7">Z12+Z14</f>
+        <f t="shared" ref="Z15" si="7">Z12+Z14</f>
         <v>0</v>
       </c>
     </row>
@@ -13840,19 +13702,19 @@
       <c r="R16" s="46"/>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
-      <c r="U16" s="59">
+      <c r="U16" s="46">
         <v>21839</v>
       </c>
-      <c r="V16" s="59">
+      <c r="V16" s="46">
         <v>64345</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="46">
         <v>73529</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="46">
         <v>104920</v>
       </c>
-      <c r="Y16" s="60">
+      <c r="Y16" s="49">
         <v>100186</v>
       </c>
       <c r="Z16" s="46"/>
@@ -14263,11 +14125,11 @@
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="58">
+      <c r="W23" s="2">
         <f>W18/W19</f>
         <v>-1.8384870423670627</v>
       </c>
-      <c r="X23" s="58">
+      <c r="X23" s="2">
         <f t="shared" ref="X23" si="11">X18/X19</f>
         <v>-0.69746096438894911</v>
       </c>
@@ -14739,11 +14601,11 @@
         <f>P15/L15-1</f>
         <v>-9.290994623655914</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="4">
         <f>Q22/M21-1</f>
         <v>-2.3066612122451762</v>
       </c>
-      <c r="R30" s="53">
+      <c r="R30" s="4">
         <f>R22/N21-1</f>
         <v>-4.2893134328358204</v>
       </c>
@@ -14788,8 +14650,8 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
       <c r="V31" s="3"/>
       <c r="W31" s="38">
         <f t="shared" ref="W31:X31" si="18">W6/W3</f>
@@ -14825,8 +14687,8 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
       <c r="V32" s="3"/>
       <c r="W32" s="38">
         <f t="shared" ref="W32:X32" si="19">W7/W3</f>
@@ -14862,8 +14724,8 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
       <c r="V33" s="3"/>
       <c r="W33" s="38">
         <f t="shared" ref="W33:X33" si="20">W8/W3</f>
@@ -15199,11 +15061,11 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="V42" s="10">
-        <f t="shared" ref="V38:V52" si="24">D42</f>
+        <f t="shared" ref="V42:V51" si="24">D42</f>
         <v>0</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" ref="W38:W52" si="25">H42</f>
+        <f t="shared" ref="W42:W51" si="25">H42</f>
         <v>0</v>
       </c>
       <c r="X42" s="10">
@@ -15700,7 +15562,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="11"/>
@@ -15717,15 +15579,15 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
-      <c r="V54" s="54">
+      <c r="V54" s="11">
         <f>V45-V53</f>
         <v>15939</v>
       </c>
-      <c r="W54" s="54">
-        <f t="shared" ref="V54:X54" si="29">W45-W53</f>
+      <c r="W54" s="11">
+        <f t="shared" ref="W54:X54" si="29">W45-W53</f>
         <v>703395</v>
       </c>
-      <c r="X54" s="54">
+      <c r="X54" s="11">
         <f t="shared" si="29"/>
         <v>679740</v>
       </c>
@@ -16002,15 +15864,15 @@
       <c r="A10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53">
         <v>793</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="53">
         <v>1474</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="53">
         <v>2295</v>
       </c>
     </row>
@@ -16018,11 +15880,11 @@
       <c r="A11" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f>E10/D10-1</f>
         <v>0.85876418663303911</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f>F10/E10-1</f>
         <v>0.55698778833107188</v>
       </c>
@@ -21284,8 +21146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459034C9-60E4-4481-A5AB-C7748C68FD5F}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21313,1836 +21175,1836 @@
       <c r="D1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
-        <v>44354</v>
+        <v>45390</v>
       </c>
       <c r="C2" s="18">
-        <v>189.30999800000001</v>
-      </c>
-      <c r="D2" s="57">
-        <f>C3/C2-1</f>
-        <v>0.22819712353491228</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+        <v>215.75</v>
+      </c>
+      <c r="D2" s="54">
+        <f>C2/C3-1</f>
+        <v>-5.7603686635944173E-3</v>
+      </c>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
-        <v>44361</v>
+        <v>45383</v>
       </c>
       <c r="C3" s="18">
-        <v>232.509995</v>
-      </c>
-      <c r="D3" s="57">
-        <f t="shared" ref="D3:D66" si="0">C4/C3-1</f>
-        <v>-6.0212465274889215E-4</v>
-      </c>
-      <c r="H3" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="54">
+        <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
+        <v>-3.9270355498081888E-2</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="62" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>44368</v>
+        <v>45376</v>
       </c>
       <c r="C4" s="18">
-        <v>232.36999499999999</v>
-      </c>
-      <c r="D4" s="57">
+        <v>225.86999499999999</v>
+      </c>
+      <c r="D4" s="54">
         <f t="shared" si="0"/>
-        <v>-1.3512927949238862E-2</v>
-      </c>
-      <c r="H4" s="72">
+        <v>-9.3421271929825522E-3</v>
+      </c>
+      <c r="H4" s="63">
         <f>$I$19-3*$I$23</f>
         <v>-0.2981718187058584</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="64">
         <f>H4</f>
         <v>-0.2981718187058584</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="65">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="74" t="str">
+      <c r="K4" s="65" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -29,82%</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="66">
         <f>J4/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="67">
         <f>L4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>44375</v>
+        <v>45369</v>
       </c>
       <c r="C5" s="18">
-        <v>229.229996</v>
-      </c>
-      <c r="D5" s="57">
+        <v>228</v>
+      </c>
+      <c r="D5" s="54">
         <f t="shared" si="0"/>
-        <v>1.2258417524031229E-2</v>
-      </c>
-      <c r="H5" s="77">
+        <v>5.0691244239631228E-2</v>
+      </c>
+      <c r="H5" s="68">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.23736328166831347</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="69">
         <f>H5</f>
         <v>-0.23736328166831347</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="70">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="80" t="str">
+      <c r="K5" s="71" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-29,82% to -23,74%</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="72">
         <f>J5/$I$31</f>
         <v>6.7567567567567571E-3</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="73">
         <f>M4+L5</f>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
-        <v>44382</v>
+        <v>45362</v>
       </c>
       <c r="C6" s="18">
-        <v>232.03999300000001</v>
-      </c>
-      <c r="D6" s="57">
+        <v>217</v>
+      </c>
+      <c r="D6" s="54">
         <f t="shared" si="0"/>
-        <v>-0.14247542663906221</v>
-      </c>
-      <c r="H6" s="77">
+        <v>-1.5649793816962521E-2</v>
+      </c>
+      <c r="H6" s="68">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.17655474463076859</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="69">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.17655474463076859</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="70">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>4</v>
       </c>
-      <c r="K6" s="80" t="str">
+      <c r="K6" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-23,74% to -17,66%</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="72">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="73">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>3.3783783783783786E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>44389</v>
+        <v>45355</v>
       </c>
       <c r="C7" s="18">
-        <v>198.979996</v>
-      </c>
-      <c r="D7" s="57">
+        <v>220.449997</v>
+      </c>
+      <c r="D7" s="54">
         <f t="shared" si="0"/>
-        <v>2.9902488288320095E-2</v>
-      </c>
-      <c r="H7" s="77">
+        <v>-3.6999829958062502E-2</v>
+      </c>
+      <c r="H7" s="68">
         <f>$I$19-1.2*$I$23</f>
-        <v>-0.11574620759322368</v>
-      </c>
-      <c r="I7" s="78">
+        <v>-0.1157462075932237</v>
+      </c>
+      <c r="I7" s="69">
         <f t="shared" si="2"/>
-        <v>-0.11574620759322368</v>
-      </c>
-      <c r="J7" s="79">
+        <v>-0.1157462075932237</v>
+      </c>
+      <c r="J7" s="70">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K7" s="80" t="str">
+      <c r="K7" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-17,66% to -11,57%</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="72">
         <f t="shared" si="4"/>
         <v>6.0810810810810814E-2</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="73">
         <f>M6+L7</f>
         <v>9.45945945945946E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
-        <v>44396</v>
+        <v>45348</v>
       </c>
       <c r="C8" s="18">
-        <v>204.929993</v>
-      </c>
-      <c r="D8" s="57">
+        <v>228.91999799999999</v>
+      </c>
+      <c r="D8" s="54">
         <f t="shared" si="0"/>
-        <v>7.9832140530059048E-2</v>
-      </c>
-      <c r="H8" s="77">
+        <v>0.10110632326425173</v>
+      </c>
+      <c r="H8" s="68">
         <f>$I$19-0.6*$I$23</f>
         <v>-5.4937670555678796E-2</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="69">
         <f t="shared" si="2"/>
         <v>-5.4937670555678796E-2</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="70">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="K8" s="80" t="str">
+      <c r="K8" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-11,57% to -5,49%</v>
       </c>
-      <c r="L8" s="81">
+      <c r="L8" s="72">
         <f t="shared" si="4"/>
         <v>0.14864864864864866</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="73">
         <f t="shared" si="5"/>
         <v>0.24324324324324326</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
-        <v>44403</v>
+        <v>45341</v>
       </c>
       <c r="C9" s="18">
-        <v>221.28999300000001</v>
-      </c>
-      <c r="D9" s="57">
+        <v>207.89999399999999</v>
+      </c>
+      <c r="D9" s="54">
         <f t="shared" si="0"/>
-        <v>2.1284319892404646E-2</v>
-      </c>
-      <c r="H9" s="77">
+        <v>-7.7230398439009362E-2</v>
+      </c>
+      <c r="H9" s="68">
         <f>$I$19</f>
-        <v>5.8708664818660989E-3</v>
-      </c>
-      <c r="I9" s="78">
+        <v>5.8708664818660971E-3</v>
+      </c>
+      <c r="I9" s="69">
         <f t="shared" si="2"/>
-        <v>5.8708664818660989E-3</v>
-      </c>
-      <c r="J9" s="79">
+        <v>5.8708664818660971E-3</v>
+      </c>
+      <c r="J9" s="70">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="K9" s="80" t="str">
+      <c r="K9" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-5,49% to 0,59%</v>
       </c>
-      <c r="L9" s="81">
+      <c r="L9" s="72">
         <f t="shared" si="4"/>
         <v>0.26351351351351349</v>
       </c>
-      <c r="M9" s="82">
+      <c r="M9" s="73">
         <f t="shared" si="5"/>
         <v>0.5067567567567568</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
-        <v>44410</v>
+        <v>45334</v>
       </c>
       <c r="C10" s="18">
-        <v>226</v>
-      </c>
-      <c r="D10" s="57">
+        <v>225.300003</v>
+      </c>
+      <c r="D10" s="54">
         <f t="shared" si="0"/>
-        <v>0.18539820353982295</v>
-      </c>
-      <c r="H10" s="77">
+        <v>-4.5015238597958862E-2</v>
+      </c>
+      <c r="H10" s="68">
         <f>$I$19+0.6*$I$23</f>
-        <v>6.6679403519410999E-2</v>
-      </c>
-      <c r="I10" s="78">
+        <v>6.6679403519410985E-2</v>
+      </c>
+      <c r="I10" s="69">
         <f t="shared" si="2"/>
-        <v>6.6679403519410999E-2</v>
-      </c>
-      <c r="J10" s="79">
+        <v>6.6679403519410985E-2</v>
+      </c>
+      <c r="J10" s="70">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="K10" s="80" t="str">
+      <c r="K10" s="71" t="str">
         <f t="shared" si="1"/>
         <v>0,59% to 6,67%</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="72">
         <f t="shared" si="4"/>
         <v>0.27702702702702703</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="73">
         <f t="shared" si="5"/>
         <v>0.78378378378378377</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <v>44417</v>
+        <v>45327</v>
       </c>
       <c r="C11" s="18">
-        <v>267.89999399999999</v>
-      </c>
-      <c r="D11" s="57">
+        <v>235.91999799999999</v>
+      </c>
+      <c r="D11" s="54">
         <f t="shared" si="0"/>
-        <v>0.31496829746102928</v>
-      </c>
-      <c r="H11" s="77">
+        <v>0.10212090163618504</v>
+      </c>
+      <c r="H11" s="68">
         <f>$I$19+1.2*$I$23</f>
         <v>0.12748794055695589</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="69">
         <f t="shared" si="2"/>
         <v>0.12748794055695589</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="70">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="K11" s="80" t="str">
+      <c r="K11" s="71" t="str">
         <f t="shared" si="1"/>
         <v>6,67% to 12,75%</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="72">
         <f t="shared" si="4"/>
         <v>0.12162162162162163</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="73">
         <f t="shared" si="5"/>
         <v>0.90540540540540537</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
-        <v>44424</v>
+        <v>45320</v>
       </c>
       <c r="C12" s="18">
-        <v>352.27999899999998</v>
-      </c>
-      <c r="D12" s="57">
+        <v>214.05999800000001</v>
+      </c>
+      <c r="D12" s="54">
         <f t="shared" si="0"/>
-        <v>1.3937785323997476E-2</v>
-      </c>
-      <c r="H12" s="77">
+        <v>2.6026903464820395E-2</v>
+      </c>
+      <c r="H12" s="68">
         <f>$I$19+1.8*$I$23</f>
         <v>0.1882964775945008</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="69">
         <f t="shared" si="2"/>
         <v>0.1882964775945008</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="70">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K12" s="80" t="str">
+      <c r="K12" s="71" t="str">
         <f t="shared" si="1"/>
         <v>12,75% to 18,83%</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="72">
         <f t="shared" si="4"/>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="73">
         <f t="shared" si="5"/>
         <v>0.95945945945945943</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
-        <v>44431</v>
+        <v>45313</v>
       </c>
       <c r="C13" s="18">
-        <v>357.19000199999999</v>
-      </c>
-      <c r="D13" s="57">
+        <v>208.63000500000001</v>
+      </c>
+      <c r="D13" s="54">
         <f t="shared" si="0"/>
-        <v>6.3327629198311142E-2</v>
-      </c>
-      <c r="H13" s="77">
+        <v>6.6451973969943845E-2</v>
+      </c>
+      <c r="H13" s="68">
         <f>$I$19+2.4*$I$23</f>
         <v>0.24910501463204568</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="69">
         <f t="shared" si="2"/>
         <v>0.24910501463204568</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K13" s="80" t="str">
+      <c r="K13" s="71" t="str">
         <f t="shared" si="1"/>
         <v>18,83% to 24,91%</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="72">
         <f t="shared" si="4"/>
         <v>2.0270270270270271E-2</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="73">
         <f t="shared" si="5"/>
         <v>0.97972972972972971</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
-        <v>44438</v>
+        <v>45306</v>
       </c>
       <c r="C14" s="18">
-        <v>379.80999800000001</v>
-      </c>
-      <c r="D14" s="57">
+        <v>195.63000500000001</v>
+      </c>
+      <c r="D14" s="54">
         <f t="shared" si="0"/>
-        <v>-2.0641892107326698E-2</v>
-      </c>
-      <c r="H14" s="77">
+        <v>2.5798321112745937E-2</v>
+      </c>
+      <c r="H14" s="68">
         <f>$I$19+3*$I$23</f>
         <v>0.30991355166959056</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="69">
         <f t="shared" si="2"/>
         <v>0.30991355166959056</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="70">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K14" s="80" t="str">
+      <c r="K14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>24,91% to 30,99%</v>
       </c>
-      <c r="L14" s="81">
+      <c r="L14" s="72">
         <f t="shared" si="4"/>
         <v>6.7567567567567571E-3</v>
       </c>
-      <c r="M14" s="82">
+      <c r="M14" s="73">
         <f t="shared" si="5"/>
         <v>0.98648648648648651</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>44445</v>
+        <v>45299</v>
       </c>
       <c r="C15" s="18">
-        <v>371.97000100000002</v>
-      </c>
-      <c r="D15" s="57">
+        <v>190.71000699999999</v>
+      </c>
+      <c r="D15" s="54">
         <f t="shared" si="0"/>
-        <v>5.8606688553897168E-3</v>
-      </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84" t="s">
+        <v>7.8737567459488345E-2</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="75">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>2</v>
       </c>
-      <c r="K15" s="84" t="str">
+      <c r="K15" s="75" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 30,99%</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L15" s="76">
         <f t="shared" si="4"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="M15" s="85">
+      <c r="M15" s="76">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <v>44452</v>
+        <v>45292</v>
       </c>
       <c r="C16" s="18">
-        <v>374.14999399999999</v>
-      </c>
-      <c r="D16" s="57">
+        <v>176.78999300000001</v>
+      </c>
+      <c r="D16" s="54">
         <f t="shared" si="0"/>
-        <v>-1.9136720873500823E-2</v>
-      </c>
-      <c r="H16" s="86"/>
-      <c r="M16" s="87"/>
+        <v>-5.8676349062098399E-2</v>
+      </c>
+      <c r="H16" s="77"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
-        <v>44459</v>
+        <v>45285</v>
       </c>
       <c r="C17" s="18">
-        <v>366.98998999999998</v>
-      </c>
-      <c r="D17" s="57">
+        <v>187.80999800000001</v>
+      </c>
+      <c r="D17" s="54">
         <f t="shared" si="0"/>
-        <v>-9.2863530146966577E-2</v>
-      </c>
-      <c r="H17" s="88" t="s">
+        <v>-8.7090094956028263E-3</v>
+      </c>
+      <c r="H17" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="M17" s="87"/>
+      <c r="I17" s="121"/>
+      <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
-        <v>44466</v>
+        <v>45278</v>
       </c>
       <c r="C18" s="18">
-        <v>332.91000400000001</v>
-      </c>
-      <c r="D18" s="57">
+        <v>189.46000699999999</v>
+      </c>
+      <c r="D18" s="54">
         <f t="shared" si="0"/>
-        <v>2.0095527078243025E-2</v>
-      </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-      <c r="M18" s="87"/>
+        <v>2.0627280137561765E-3</v>
+      </c>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
-        <v>44473</v>
+        <v>45271</v>
       </c>
       <c r="C19" s="18">
-        <v>339.60000600000001</v>
-      </c>
-      <c r="D19" s="57">
+        <v>189.070007</v>
+      </c>
+      <c r="D19" s="54">
         <f t="shared" si="0"/>
-        <v>5.6272039641836802E-2</v>
-      </c>
-      <c r="H19" s="92" t="s">
+        <v>8.0214866481259639E-2</v>
+      </c>
+      <c r="H19" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="I19" s="130">
+      <c r="I19" s="114">
         <f>AVERAGE(D:D)</f>
-        <v>5.8708664818660989E-3</v>
-      </c>
-      <c r="M19" s="87"/>
+        <v>5.8708664818660971E-3</v>
+      </c>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
-        <v>44480</v>
+        <v>45264</v>
       </c>
       <c r="C20" s="18">
-        <v>358.709991</v>
-      </c>
-      <c r="D20" s="57">
+        <v>175.029999</v>
+      </c>
+      <c r="D20" s="54">
         <f t="shared" si="0"/>
-        <v>5.7288671951152947E-2</v>
-      </c>
-      <c r="H20" s="92" t="s">
+        <v>-7.5976415376095563E-3</v>
+      </c>
+      <c r="H20" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="130">
+      <c r="I20" s="114">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>8.330718257077244E-3</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>44487</v>
+        <v>45257</v>
       </c>
       <c r="C21" s="18">
-        <v>379.26001000000002</v>
-      </c>
-      <c r="D21" s="57">
+        <v>176.36999499999999</v>
+      </c>
+      <c r="D21" s="54">
         <f t="shared" si="0"/>
-        <v>-1.9590842177112266E-2</v>
-      </c>
-      <c r="H21" s="92" t="s">
+        <v>7.5406568259241968E-3</v>
+      </c>
+      <c r="H21" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="I21" s="130">
+      <c r="I21" s="114">
         <f>MEDIAN(D:D)</f>
         <v>4.6071114441967875E-3</v>
       </c>
-      <c r="M21" s="87"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>44494</v>
+        <v>45250</v>
       </c>
       <c r="C22" s="18">
-        <v>371.82998700000002</v>
-      </c>
-      <c r="D22" s="57">
+        <v>175.050003</v>
+      </c>
+      <c r="D22" s="54">
         <f t="shared" si="0"/>
-        <v>-5.6719462489183359E-2</v>
-      </c>
-      <c r="H22" s="92" t="s">
+        <v>3.1526258659863249E-2</v>
+      </c>
+      <c r="H22" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="I22" s="130" t="e">
+      <c r="I22" s="114" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="87"/>
+      <c r="M22" s="78"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
-        <v>44501</v>
+        <v>45243</v>
       </c>
       <c r="C23" s="18">
-        <v>350.73998999999998</v>
-      </c>
-      <c r="D23" s="57">
+        <v>169.699997</v>
+      </c>
+      <c r="D23" s="54">
         <f t="shared" si="0"/>
-        <v>3.7577759524940468E-2</v>
-      </c>
-      <c r="H23" s="92" t="s">
+        <v>0.21110478914875785</v>
+      </c>
+      <c r="H23" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="130">
+      <c r="I23" s="114">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>0.10134756172924149</v>
       </c>
-      <c r="M23" s="87"/>
+      <c r="M23" s="78"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
-        <v>44508</v>
+        <v>45236</v>
       </c>
       <c r="C24" s="18">
-        <v>363.92001299999998</v>
-      </c>
-      <c r="D24" s="57">
+        <v>140.11999499999999</v>
+      </c>
+      <c r="D24" s="54">
         <f t="shared" si="0"/>
-        <v>2.0141752962621551E-2</v>
-      </c>
-      <c r="H24" s="92" t="s">
+        <v>6.1836826062005246E-2</v>
+      </c>
+      <c r="H24" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="130">
+      <c r="I24" s="114">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>1.0271328268462415E-2</v>
       </c>
-      <c r="M24" s="87"/>
+      <c r="M24" s="78"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
-        <v>44515</v>
+        <v>45229</v>
       </c>
       <c r="C25" s="18">
-        <v>371.25</v>
-      </c>
-      <c r="D25" s="57">
+        <v>131.96000699999999</v>
+      </c>
+      <c r="D25" s="54">
         <f t="shared" si="0"/>
-        <v>-8.5899030303030366E-2</v>
-      </c>
-      <c r="H25" s="92" t="s">
+        <v>2.1046130414495101E-2</v>
+      </c>
+      <c r="H25" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="I25" s="131">
+      <c r="I25" s="115">
         <f>KURT(D:D)</f>
-        <v>1.6054064394877701</v>
-      </c>
-      <c r="M25" s="87"/>
+        <v>1.6054064394877656</v>
+      </c>
+      <c r="M25" s="78"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
-        <v>44522</v>
+        <v>45222</v>
       </c>
       <c r="C26" s="18">
-        <v>339.35998499999999</v>
-      </c>
-      <c r="D26" s="57">
+        <v>129.240005</v>
+      </c>
+      <c r="D26" s="54">
         <f t="shared" si="0"/>
-        <v>-0.18741153291835499</v>
-      </c>
-      <c r="H26" s="92" t="s">
+        <v>-2.0983183886947421E-2</v>
+      </c>
+      <c r="H26" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="115">
         <f>SKEW(D:D)</f>
-        <v>0.52647641131007639</v>
-      </c>
-      <c r="M26" s="87"/>
+        <v>0.52647641131007628</v>
+      </c>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
-        <v>44529</v>
+        <v>45215</v>
       </c>
       <c r="C27" s="18">
-        <v>275.76001000000002</v>
-      </c>
-      <c r="D27" s="57">
+        <v>132.009995</v>
+      </c>
+      <c r="D27" s="54">
         <f t="shared" si="0"/>
-        <v>0.11669564415812128</v>
-      </c>
-      <c r="H27" s="92" t="s">
+        <v>-5.7609986327670115E-2</v>
+      </c>
+      <c r="H27" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="130">
+      <c r="I27" s="114">
         <f>I29-I28</f>
         <v>0.64261673853228041</v>
       </c>
-      <c r="M27" s="87"/>
+      <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
-        <v>44536</v>
+        <v>45208</v>
       </c>
       <c r="C28" s="18">
-        <v>307.94000199999999</v>
-      </c>
-      <c r="D28" s="57">
+        <v>140.08000200000001</v>
+      </c>
+      <c r="D28" s="54">
         <f t="shared" si="0"/>
-        <v>-5.1471084942059653E-2</v>
-      </c>
-      <c r="H28" s="92" t="s">
+        <v>-0.11688307643686402</v>
+      </c>
+      <c r="H28" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="130">
+      <c r="I28" s="114">
         <f>MIN(D:D)</f>
         <v>-0.24576270941784439</v>
       </c>
-      <c r="M28" s="87"/>
+      <c r="M28" s="78"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>44543</v>
+        <v>45201</v>
       </c>
       <c r="C29" s="18">
-        <v>292.08999599999999</v>
-      </c>
-      <c r="D29" s="57">
+        <v>158.61999499999999</v>
+      </c>
+      <c r="D29" s="54">
         <f t="shared" si="0"/>
-        <v>4.2041833572417309E-2</v>
-      </c>
-      <c r="H29" s="92" t="s">
+        <v>-3.7684084677276353E-3</v>
+      </c>
+      <c r="H29" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="114">
         <f>MAX(D:D)</f>
         <v>0.39685402911443601</v>
       </c>
-      <c r="M29" s="87"/>
+      <c r="M29" s="78"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
-        <v>44550</v>
+        <v>45194</v>
       </c>
       <c r="C30" s="18">
-        <v>304.36999500000002</v>
-      </c>
-      <c r="D30" s="57">
+        <v>159.220001</v>
+      </c>
+      <c r="D30" s="54">
         <f t="shared" si="0"/>
-        <v>1.4291835829612687E-2</v>
-      </c>
-      <c r="H30" s="92" t="s">
+        <v>1.4140133757961859E-2</v>
+      </c>
+      <c r="H30" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="115">
         <f>SUM(D:D)</f>
-        <v>0.86888823931618264</v>
-      </c>
-      <c r="M30" s="87"/>
+        <v>0.86888823931618242</v>
+      </c>
+      <c r="M30" s="78"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
-        <v>44557</v>
+        <v>45187</v>
       </c>
       <c r="C31" s="18">
-        <v>308.72000100000002</v>
-      </c>
-      <c r="D31" s="57">
+        <v>157</v>
+      </c>
+      <c r="D31" s="54">
         <f t="shared" si="0"/>
-        <v>-0.23108316846630228</v>
-      </c>
-      <c r="H31" s="93" t="s">
+        <v>-3.9050096736133688E-2</v>
+      </c>
+      <c r="H31" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="132">
+      <c r="I31" s="116">
         <f>COUNT(D:D)</f>
         <v>148</v>
       </c>
-      <c r="M31" s="87"/>
+      <c r="M31" s="78"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
-        <v>44564</v>
+        <v>45180</v>
       </c>
       <c r="C32" s="18">
-        <v>237.38000500000001</v>
-      </c>
-      <c r="D32" s="57">
+        <v>163.38000500000001</v>
+      </c>
+      <c r="D32" s="54">
         <f t="shared" si="0"/>
-        <v>-9.1583139026389482E-2</v>
-      </c>
-      <c r="H32" s="94"/>
-      <c r="M32" s="87"/>
+        <v>-4.5677524164909777E-2</v>
+      </c>
+      <c r="H32" s="81"/>
+      <c r="M32" s="78"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
-        <v>44571</v>
+        <v>45173</v>
       </c>
       <c r="C33" s="18">
-        <v>215.63999899999999</v>
-      </c>
-      <c r="D33" s="57">
+        <v>171.199997</v>
+      </c>
+      <c r="D33" s="54">
         <f t="shared" si="0"/>
-        <v>-7.9484321459303953E-2</v>
-      </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="96" t="s">
+        <v>-3.0522674681979223E-2</v>
+      </c>
+      <c r="H33" s="82"/>
+      <c r="I33" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="J33" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="L33" s="97" t="s">
+      <c r="L33" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="M33" s="87"/>
+      <c r="M33" s="78"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
-        <v>44578</v>
+        <v>45166</v>
       </c>
       <c r="C34" s="18">
-        <v>198.5</v>
-      </c>
-      <c r="D34" s="57">
+        <v>176.58999600000001</v>
+      </c>
+      <c r="D34" s="54">
         <f t="shared" si="0"/>
-        <v>-5.0478609571788402E-2</v>
-      </c>
-      <c r="H34" s="98" t="s">
+        <v>4.3737773583098827E-2</v>
+      </c>
+      <c r="H34" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I34" s="72">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>7.556312313711451E-2</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="70">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>78</v>
       </c>
-      <c r="K34" s="81">
+      <c r="K34" s="72">
         <f>J34/$I$31</f>
         <v>0.52702702702702697</v>
       </c>
-      <c r="L34" s="82">
+      <c r="L34" s="73">
         <f>K34*I34</f>
         <v>3.9823808139830615E-2</v>
       </c>
-      <c r="M34" s="87"/>
+      <c r="M34" s="78"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
-        <v>44585</v>
+        <v>45159</v>
       </c>
       <c r="C35" s="18">
-        <v>188.479996</v>
-      </c>
-      <c r="D35" s="57">
+        <v>169.19000199999999</v>
+      </c>
+      <c r="D35" s="54">
         <f t="shared" si="0"/>
-        <v>-1.039893910014722E-2</v>
-      </c>
-      <c r="H35" s="98" t="s">
+        <v>5.0412830738872483E-2</v>
+      </c>
+      <c r="H35" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="81">
+      <c r="I35" s="72">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
-        <v>-7.1786219505410614E-2</v>
-      </c>
-      <c r="J35" s="79">
+        <v>-7.178621950541067E-2</v>
+      </c>
+      <c r="J35" s="70">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>70</v>
       </c>
-      <c r="K35" s="81">
+      <c r="K35" s="72">
         <f>J35/$I$31</f>
         <v>0.47297297297297297</v>
       </c>
-      <c r="L35" s="82">
+      <c r="L35" s="73">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>-3.3952941657964482E-2</v>
-      </c>
-      <c r="M35" s="87"/>
+        <v>-3.3952941657964503E-2</v>
+      </c>
+      <c r="M35" s="78"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
-        <v>44592</v>
+        <v>45152</v>
       </c>
       <c r="C36" s="18">
-        <v>186.520004</v>
-      </c>
-      <c r="D36" s="57">
+        <v>161.070007</v>
+      </c>
+      <c r="D36" s="54">
         <f t="shared" si="0"/>
-        <v>0.1736542960829015</v>
-      </c>
-      <c r="H36" s="99" t="s">
+        <v>3.3560133048258001E-2</v>
+      </c>
+      <c r="H36" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="I36" s="84">
+      <c r="I36" s="75">
         <v>0</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="75">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="100">
+      <c r="K36" s="87">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="85">
+      <c r="L36" s="76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="87"/>
+      <c r="M36" s="78"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
-        <v>44599</v>
+        <v>45145</v>
       </c>
       <c r="C37" s="18">
-        <v>218.91000399999999</v>
-      </c>
-      <c r="D37" s="57">
+        <v>155.83999600000001</v>
+      </c>
+      <c r="D37" s="54">
         <f t="shared" si="0"/>
-        <v>-0.11031934840218627</v>
-      </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="87"/>
+        <v>-3.1989619479793063E-2</v>
+      </c>
+      <c r="H37" s="81"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="78"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
-        <v>44606</v>
+        <v>45138</v>
       </c>
       <c r="C38" s="18">
-        <v>194.759995</v>
-      </c>
-      <c r="D38" s="57">
+        <v>160.990005</v>
+      </c>
+      <c r="D38" s="54">
         <f t="shared" si="0"/>
-        <v>-0.20291636380458933</v>
-      </c>
-      <c r="H38" s="72" t="s">
+        <v>-0.10176862917521912</v>
+      </c>
+      <c r="H38" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="96" t="s">
+      <c r="I38" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="J38" s="96" t="s">
+      <c r="J38" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="K38" s="96" t="s">
+      <c r="K38" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="L38" s="96" t="s">
+      <c r="L38" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="M38" s="97" t="s">
+      <c r="M38" s="84" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>44613</v>
+        <v>45131</v>
       </c>
       <c r="C39" s="18">
-        <v>155.240005</v>
-      </c>
-      <c r="D39" s="57">
+        <v>179.229996</v>
+      </c>
+      <c r="D39" s="54">
         <f t="shared" si="0"/>
-        <v>-0.12451687952470758</v>
-      </c>
-      <c r="H39" s="102">
+        <v>3.4695733548691043E-2</v>
+      </c>
+      <c r="H39" s="89">
         <v>1</v>
       </c>
-      <c r="I39" s="81">
+      <c r="I39" s="72">
         <f>$I$19+($H39*$I$23)</f>
-        <v>0.10721842821110759</v>
-      </c>
-      <c r="J39" s="81">
+        <v>0.10721842821110758</v>
+      </c>
+      <c r="J39" s="72">
         <f>$I$19-($H39*$I$23)</f>
-        <v>-9.5476695247375384E-2</v>
-      </c>
-      <c r="K39" s="79">
+        <v>-9.5476695247375398E-2</v>
+      </c>
+      <c r="K39" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>109</v>
       </c>
-      <c r="L39" s="81">
+      <c r="L39" s="72">
         <f>K39/$I$31</f>
         <v>0.73648648648648651</v>
       </c>
-      <c r="M39" s="82">
+      <c r="M39" s="73">
         <v>0.68269999999999997</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
-        <v>44620</v>
+        <v>45124</v>
       </c>
       <c r="C40" s="18">
-        <v>135.91000399999999</v>
-      </c>
-      <c r="D40" s="57">
+        <v>173.220001</v>
+      </c>
+      <c r="D40" s="54">
         <f t="shared" si="0"/>
-        <v>-0.10190571401940351</v>
-      </c>
-      <c r="H40" s="102">
+        <v>-7.676426531581515E-3</v>
+      </c>
+      <c r="H40" s="89">
         <v>2</v>
       </c>
-      <c r="I40" s="81">
+      <c r="I40" s="72">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.20856598994034908</v>
       </c>
-      <c r="J40" s="81">
+      <c r="J40" s="72">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.19682425697661687</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>139</v>
       </c>
-      <c r="L40" s="81">
+      <c r="L40" s="72">
         <f>K40/$I$31</f>
         <v>0.93918918918918914</v>
       </c>
-      <c r="M40" s="82">
+      <c r="M40" s="73">
         <v>0.95450000000000002</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
-        <v>44627</v>
+        <v>45117</v>
       </c>
       <c r="C41" s="18">
-        <v>122.05999799999999</v>
-      </c>
-      <c r="D41" s="57">
+        <v>174.55999800000001</v>
+      </c>
+      <c r="D41" s="54">
         <f t="shared" si="0"/>
-        <v>0.39685402911443601</v>
-      </c>
-      <c r="H41" s="102">
+        <v>7.8462850126882255E-2</v>
+      </c>
+      <c r="H41" s="89">
         <v>3</v>
       </c>
-      <c r="I41" s="81">
+      <c r="I41" s="72">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.30991355166959056</v>
       </c>
-      <c r="J41" s="81">
+      <c r="J41" s="72">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.2981718187058584</v>
       </c>
-      <c r="K41" s="79">
+      <c r="K41" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>146</v>
       </c>
-      <c r="L41" s="81">
+      <c r="L41" s="72">
         <f>K41/$I$31</f>
         <v>0.98648648648648651</v>
       </c>
-      <c r="M41" s="103">
+      <c r="M41" s="90">
         <v>0.99729999999999996</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
-        <v>44634</v>
+        <v>45110</v>
       </c>
       <c r="C42" s="18">
-        <v>170.5</v>
-      </c>
-      <c r="D42" s="57">
+        <v>161.86000100000001</v>
+      </c>
+      <c r="D42" s="54">
         <f t="shared" si="0"/>
-        <v>-0.11759532551319651</v>
-      </c>
-      <c r="H42" s="77"/>
-      <c r="M42" s="103"/>
+        <v>-5.4666510602344842E-2</v>
+      </c>
+      <c r="H42" s="68"/>
+      <c r="M42" s="90"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
-        <v>44641</v>
+        <v>45103</v>
       </c>
       <c r="C43" s="18">
-        <v>150.449997</v>
-      </c>
-      <c r="D43" s="57">
+        <v>171.220001</v>
+      </c>
+      <c r="D43" s="54">
         <f t="shared" si="0"/>
-        <v>9.9302108992398219E-2</v>
-      </c>
-      <c r="H43" s="104" t="s">
+        <v>1.0028297309384149E-2</v>
+      </c>
+      <c r="H43" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="106"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="126"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
-        <v>44648</v>
+        <v>45096</v>
       </c>
       <c r="C44" s="18">
-        <v>165.38999899999999</v>
-      </c>
-      <c r="D44" s="57">
+        <v>169.520004</v>
+      </c>
+      <c r="D44" s="54">
         <f t="shared" si="0"/>
-        <v>-0.14892075789903103</v>
-      </c>
-      <c r="H44" s="107">
+        <v>-5.1954555695481908E-2</v>
+      </c>
+      <c r="H44" s="91">
         <v>0.01</v>
       </c>
-      <c r="I44" s="108">
+      <c r="I44" s="92">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.21784477027529719</v>
       </c>
-      <c r="J44" s="109">
+      <c r="J44" s="93">
         <v>0.2</v>
       </c>
-      <c r="K44" s="108">
+      <c r="K44" s="92">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-6.3556748515304018E-2</v>
       </c>
-      <c r="L44" s="109">
+      <c r="L44" s="93">
         <v>0.85</v>
       </c>
-      <c r="M44" s="110">
+      <c r="M44" s="94">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>9.8725460847149477E-2</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
-        <v>44655</v>
+        <v>45089</v>
       </c>
       <c r="C45" s="18">
-        <v>140.759995</v>
-      </c>
-      <c r="D45" s="57">
+        <v>178.80999800000001</v>
+      </c>
+      <c r="D45" s="54">
         <f t="shared" si="0"/>
-        <v>-2.5504384253494883E-2</v>
-      </c>
-      <c r="H45" s="111">
+        <v>2.3408865479573882E-2</v>
+      </c>
+      <c r="H45" s="95">
         <v>0.02</v>
       </c>
-      <c r="I45" s="112">
+      <c r="I45" s="96">
         <f t="shared" si="7"/>
         <v>-0.19255495345446894</v>
       </c>
-      <c r="J45" s="113">
+      <c r="J45" s="97">
         <v>0.25</v>
       </c>
-      <c r="K45" s="112">
+      <c r="K45" s="96">
         <f t="shared" si="8"/>
         <v>-5.2632544422197641E-2</v>
       </c>
-      <c r="L45" s="113">
+      <c r="L45" s="97">
         <v>0.86</v>
       </c>
-      <c r="M45" s="114">
+      <c r="M45" s="98">
         <f t="shared" si="9"/>
         <v>0.10153244618046373</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
-        <v>44662</v>
+        <v>45082</v>
       </c>
       <c r="C46" s="18">
-        <v>137.16999799999999</v>
-      </c>
-      <c r="D46" s="57">
+        <v>174.720001</v>
+      </c>
+      <c r="D46" s="54">
         <f t="shared" si="0"/>
-        <v>3.3535540330038582E-3</v>
-      </c>
-      <c r="H46" s="111">
+        <v>-1.5999942857143346E-3</v>
+      </c>
+      <c r="H46" s="95">
         <v>0.03</v>
       </c>
-      <c r="I46" s="112">
+      <c r="I46" s="96">
         <f t="shared" si="7"/>
         <v>-0.1828269027824852</v>
       </c>
-      <c r="J46" s="113">
+      <c r="J46" s="97">
         <v>0.3</v>
       </c>
-      <c r="K46" s="112">
+      <c r="K46" s="96">
         <f t="shared" si="8"/>
         <v>-4.4440750287971155E-2</v>
       </c>
-      <c r="L46" s="113">
+      <c r="L46" s="97">
         <v>0.87</v>
       </c>
-      <c r="M46" s="114">
+      <c r="M46" s="98">
         <f t="shared" si="9"/>
         <v>0.10439079722439422</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
-        <v>44669</v>
+        <v>45075</v>
       </c>
       <c r="C47" s="18">
-        <v>137.63000500000001</v>
-      </c>
-      <c r="D47" s="57">
+        <v>175</v>
+      </c>
+      <c r="D47" s="54">
         <f t="shared" si="0"/>
-        <v>-5.9798086906993952E-2</v>
-      </c>
-      <c r="H47" s="111">
+        <v>4.6650736482967803E-2</v>
+      </c>
+      <c r="H47" s="95">
         <v>0.04</v>
       </c>
-      <c r="I47" s="112">
+      <c r="I47" s="96">
         <f t="shared" si="7"/>
         <v>-0.17222510632195803</v>
       </c>
-      <c r="J47" s="113">
+      <c r="J47" s="97">
         <v>0.35</v>
       </c>
-      <c r="K47" s="112">
+      <c r="K47" s="96">
         <f t="shared" si="8"/>
         <v>-2.3943738369986443E-2</v>
       </c>
-      <c r="L47" s="113">
+      <c r="L47" s="97">
         <v>0.88</v>
       </c>
-      <c r="M47" s="114">
+      <c r="M47" s="98">
         <f t="shared" si="9"/>
         <v>0.11062492599186458</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <v>44676</v>
+        <v>45068</v>
       </c>
       <c r="C48" s="18">
-        <v>129.39999399999999</v>
-      </c>
-      <c r="D48" s="57">
+        <v>167.199997</v>
+      </c>
+      <c r="D48" s="54">
         <f t="shared" si="0"/>
-        <v>-4.5208587876750528E-2</v>
-      </c>
-      <c r="H48" s="111">
+        <v>0.11630389982844092</v>
+      </c>
+      <c r="H48" s="95">
         <v>0.05</v>
       </c>
-      <c r="I48" s="112">
+      <c r="I48" s="96">
         <f t="shared" si="7"/>
         <v>-0.16206552696269527</v>
       </c>
-      <c r="J48" s="113">
+      <c r="J48" s="97">
         <v>0.4</v>
       </c>
-      <c r="K48" s="112">
+      <c r="K48" s="96">
         <f t="shared" si="8"/>
         <v>-1.1021736869965534E-2</v>
       </c>
-      <c r="L48" s="113">
+      <c r="L48" s="97">
         <v>0.89</v>
       </c>
-      <c r="M48" s="114">
+      <c r="M48" s="98">
         <f t="shared" si="9"/>
         <v>0.11577718018432995</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
-        <v>44683</v>
+        <v>45061</v>
       </c>
       <c r="C49" s="18">
-        <v>123.550003</v>
-      </c>
-      <c r="D49" s="57">
+        <v>149.779999</v>
+      </c>
+      <c r="D49" s="54">
         <f t="shared" si="0"/>
-        <v>-0.10659656560267339</v>
-      </c>
-      <c r="H49" s="111">
+        <v>0.14248659149565568</v>
+      </c>
+      <c r="H49" s="95">
         <v>0.06</v>
       </c>
-      <c r="I49" s="112">
+      <c r="I49" s="96">
         <f t="shared" si="7"/>
         <v>-0.1511717856793508</v>
       </c>
-      <c r="J49" s="113">
+      <c r="J49" s="97">
         <v>0.45</v>
       </c>
-      <c r="K49" s="112">
+      <c r="K49" s="96">
         <f t="shared" si="8"/>
         <v>-3.443146340425628E-3</v>
       </c>
-      <c r="L49" s="113">
+      <c r="L49" s="97">
         <v>0.9</v>
       </c>
-      <c r="M49" s="114">
+      <c r="M49" s="98">
         <f t="shared" si="9"/>
         <v>0.11668865359380462</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
-        <v>44690</v>
+        <v>45054</v>
       </c>
       <c r="C50" s="18">
-        <v>110.379997</v>
-      </c>
-      <c r="D50" s="57">
+        <v>131.10000600000001</v>
+      </c>
+      <c r="D50" s="54">
         <f t="shared" si="0"/>
-        <v>3.5241892604871206E-2</v>
-      </c>
-      <c r="H50" s="111">
+        <v>0.1277419870967742</v>
+      </c>
+      <c r="H50" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="112">
+      <c r="I50" s="96">
         <f t="shared" si="7"/>
         <v>-0.13726744797589935</v>
       </c>
-      <c r="J50" s="113">
+      <c r="J50" s="97">
         <v>0.5</v>
       </c>
-      <c r="K50" s="112">
+      <c r="K50" s="96">
         <f t="shared" si="8"/>
         <v>4.6071114441967875E-3</v>
       </c>
-      <c r="L50" s="113">
+      <c r="L50" s="97">
         <v>0.91</v>
       </c>
-      <c r="M50" s="114">
+      <c r="M50" s="98">
         <f t="shared" si="9"/>
         <v>0.12520132822088414</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
-        <v>44697</v>
+        <v>45047</v>
       </c>
       <c r="C51" s="18">
-        <v>114.269997</v>
-      </c>
-      <c r="D51" s="57">
+        <v>116.25</v>
+      </c>
+      <c r="D51" s="54">
         <f t="shared" si="0"/>
-        <v>6.4759343609679387E-3</v>
-      </c>
-      <c r="H51" s="111">
+        <v>-4.6505889870503525E-2</v>
+      </c>
+      <c r="H51" s="95">
         <v>0.08</v>
       </c>
-      <c r="I51" s="112">
+      <c r="I51" s="96">
         <f t="shared" si="7"/>
         <v>-0.11925649847595918</v>
       </c>
-      <c r="J51" s="113">
+      <c r="J51" s="97">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="112">
+      <c r="K51" s="96">
         <f t="shared" si="8"/>
         <v>1.0358964252821925E-2</v>
       </c>
-      <c r="L51" s="113">
+      <c r="L51" s="97">
         <v>0.92</v>
       </c>
-      <c r="M51" s="114">
+      <c r="M51" s="98">
         <f t="shared" si="9"/>
         <v>0.14518532476057899</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
-        <v>44704</v>
+        <v>45040</v>
       </c>
       <c r="C52" s="18">
-        <v>115.010002</v>
-      </c>
-      <c r="D52" s="57">
+        <v>121.91999800000001</v>
+      </c>
+      <c r="D52" s="54">
         <f t="shared" si="0"/>
-        <v>9.3904354509966037E-3</v>
-      </c>
-      <c r="H52" s="111">
+        <v>-6.4456787513831215E-2</v>
+      </c>
+      <c r="H52" s="95">
         <v>0.09</v>
       </c>
-      <c r="I52" s="112">
+      <c r="I52" s="96">
         <f t="shared" si="7"/>
         <v>-0.11550748744491487</v>
       </c>
-      <c r="J52" s="113">
+      <c r="J52" s="97">
         <v>0.6</v>
       </c>
-      <c r="K52" s="112">
+      <c r="K52" s="96">
         <f t="shared" si="8"/>
         <v>1.7297768861836947E-2</v>
       </c>
-      <c r="L52" s="113">
+      <c r="L52" s="97">
         <v>0.93</v>
       </c>
-      <c r="M52" s="114">
+      <c r="M52" s="98">
         <f t="shared" si="9"/>
         <v>0.1632762912237698</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
-        <v>44711</v>
+        <v>45033</v>
       </c>
       <c r="C53" s="18">
-        <v>116.089996</v>
-      </c>
-      <c r="D53" s="57">
+        <v>130.320007</v>
+      </c>
+      <c r="D53" s="54">
         <f t="shared" si="0"/>
-        <v>-0.16142646778969649</v>
-      </c>
-      <c r="H53" s="111">
+        <v>-4.5828827464540201E-3</v>
+      </c>
+      <c r="H53" s="95">
         <v>0.1</v>
       </c>
-      <c r="I53" s="112">
+      <c r="I53" s="96">
         <f t="shared" si="7"/>
         <v>-0.11049422030135157</v>
       </c>
-      <c r="J53" s="113">
+      <c r="J53" s="97">
         <v>0.65</v>
       </c>
-      <c r="K53" s="112">
+      <c r="K53" s="96">
         <f t="shared" si="8"/>
         <v>2.5924041406386888E-2</v>
       </c>
-      <c r="L53" s="113">
+      <c r="L53" s="97">
         <v>0.94</v>
       </c>
-      <c r="M53" s="114">
+      <c r="M53" s="98">
         <f t="shared" si="9"/>
         <v>0.17395598424147868</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
-        <v>44718</v>
+        <v>45026</v>
       </c>
       <c r="C54" s="18">
-        <v>97.349997999999999</v>
-      </c>
-      <c r="D54" s="57">
+        <v>130.91999799999999</v>
+      </c>
+      <c r="D54" s="54">
         <f t="shared" si="0"/>
-        <v>2.5680534682701595E-3</v>
-      </c>
-      <c r="H54" s="111">
+        <v>-2.2036282290142761E-2</v>
+      </c>
+      <c r="H54" s="95">
         <v>0.11</v>
       </c>
-      <c r="I54" s="112">
+      <c r="I54" s="96">
         <f t="shared" si="7"/>
         <v>-0.10612953985602994</v>
       </c>
-      <c r="J54" s="113">
+      <c r="J54" s="97">
         <v>0.7</v>
       </c>
-      <c r="K54" s="112">
+      <c r="K54" s="96">
         <f t="shared" si="8"/>
         <v>4.1595426167669584E-2</v>
       </c>
-      <c r="L54" s="113">
+      <c r="L54" s="97">
         <v>0.95</v>
       </c>
-      <c r="M54" s="114">
+      <c r="M54" s="98">
         <f t="shared" si="9"/>
         <v>0.17599553922315261</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
-        <v>44725</v>
+        <v>45019</v>
       </c>
       <c r="C55" s="18">
-        <v>97.599997999999999</v>
-      </c>
-      <c r="D55" s="57">
+        <v>133.86999499999999</v>
+      </c>
+      <c r="D55" s="54">
         <f t="shared" si="0"/>
-        <v>0.25368856052640498</v>
-      </c>
-      <c r="H55" s="111">
+        <v>-6.2206690017513222E-2</v>
+      </c>
+      <c r="H55" s="95">
         <v>0.12</v>
       </c>
-      <c r="I55" s="112">
+      <c r="I55" s="96">
         <f t="shared" si="7"/>
         <v>-0.10260542489060633</v>
       </c>
-      <c r="J55" s="113">
+      <c r="J55" s="97">
         <v>0.75</v>
       </c>
-      <c r="K55" s="112">
+      <c r="K55" s="96">
         <f t="shared" si="8"/>
         <v>5.2509762021014206E-2</v>
       </c>
-      <c r="L55" s="113">
+      <c r="L55" s="97">
         <v>0.96</v>
       </c>
-      <c r="M55" s="114">
+      <c r="M55" s="98">
         <f t="shared" si="9"/>
         <v>0.18848299381289527</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
-        <v>44732</v>
+        <v>45012</v>
       </c>
       <c r="C56" s="18">
-        <v>122.360001</v>
-      </c>
-      <c r="D56" s="57">
+        <v>142.75</v>
+      </c>
+      <c r="D56" s="54">
         <f t="shared" si="0"/>
-        <v>-0.11090225473273729</v>
-      </c>
-      <c r="H56" s="111">
+        <v>5.1255669480740007E-2</v>
+      </c>
+      <c r="H56" s="95">
         <v>0.13</v>
       </c>
-      <c r="I56" s="112">
+      <c r="I56" s="96">
         <f t="shared" si="7"/>
         <v>-0.10078906828211134</v>
       </c>
-      <c r="J56" s="113">
+      <c r="J56" s="97">
         <v>0.8</v>
       </c>
-      <c r="K56" s="112">
+      <c r="K56" s="96">
         <f t="shared" si="8"/>
         <v>7.7071549709468667E-2</v>
       </c>
-      <c r="L56" s="113">
+      <c r="L56" s="97">
         <v>0.97</v>
       </c>
-      <c r="M56" s="114">
+      <c r="M56" s="98">
         <f t="shared" si="9"/>
         <v>0.22118926643658904</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
-        <v>44739</v>
+        <v>45005</v>
       </c>
       <c r="C57" s="18">
-        <v>108.790001</v>
-      </c>
-      <c r="D57" s="57">
+        <v>135.78999300000001</v>
+      </c>
+      <c r="D57" s="54">
         <f t="shared" si="0"/>
-        <v>5.0004613935061837E-2</v>
-      </c>
-      <c r="H57" s="111">
+        <v>1.4722692355539913E-4</v>
+      </c>
+      <c r="H57" s="95">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="112">
+      <c r="I57" s="96">
         <f t="shared" si="7"/>
         <v>-9.2120903297031861E-2</v>
       </c>
-      <c r="J57" s="113"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="113">
+      <c r="J57" s="97"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97">
         <v>0.98</v>
       </c>
-      <c r="M57" s="114">
+      <c r="M57" s="98">
         <f t="shared" si="9"/>
         <v>0.2448913065352154</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
-        <v>44746</v>
+        <v>44998</v>
       </c>
       <c r="C58" s="18">
-        <v>114.230003</v>
-      </c>
-      <c r="D58" s="57">
+        <v>135.770004</v>
+      </c>
+      <c r="D58" s="54">
         <f t="shared" si="0"/>
-        <v>-0.19189358683637614</v>
-      </c>
-      <c r="H58" s="115">
+        <v>4.882199417895694E-2</v>
+      </c>
+      <c r="H58" s="99">
         <v>0.15</v>
       </c>
-      <c r="I58" s="116">
+      <c r="I58" s="100">
         <f t="shared" si="7"/>
         <v>-8.5578294860844034E-2</v>
       </c>
-      <c r="J58" s="117"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="119">
+      <c r="J58" s="101"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="103">
         <v>0.99</v>
       </c>
-      <c r="M58" s="120">
+      <c r="M58" s="104">
         <f t="shared" si="9"/>
         <v>0.28616682110175595</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
-        <v>44753</v>
+        <v>44991</v>
       </c>
       <c r="C59" s="18">
-        <v>92.309997999999993</v>
-      </c>
-      <c r="D59" s="57">
+        <v>129.449997</v>
+      </c>
+      <c r="D59" s="54">
         <f t="shared" si="0"/>
-        <v>0.1132055489807291</v>
+        <v>-0.17167905152085394</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
-        <v>44760</v>
+        <v>44984</v>
       </c>
       <c r="C60" s="18">
-        <v>102.760002</v>
-      </c>
-      <c r="D60" s="57">
+        <v>156.279999</v>
+      </c>
+      <c r="D60" s="54">
         <f t="shared" si="0"/>
-        <v>-2.9193265294025217E-4</v>
-      </c>
-      <c r="H60" s="121" t="s">
+        <v>1.0213329221977929E-2</v>
+      </c>
+      <c r="H60" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="I60" s="122">
+      <c r="I60" s="106">
         <v>-0.08</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
-        <v>44767</v>
+        <v>44977</v>
       </c>
       <c r="C61" s="18">
-        <v>102.730003</v>
-      </c>
-      <c r="D61" s="57">
+        <v>154.699997</v>
+      </c>
+      <c r="D61" s="54">
         <f t="shared" si="0"/>
-        <v>0.24432977968471392</v>
-      </c>
-      <c r="H61" s="123" t="s">
+        <v>1.0384664552382628E-2</v>
+      </c>
+      <c r="H61" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="I61" s="124">
+      <c r="I61" s="108">
         <v>-0.24</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
-        <v>44774</v>
+        <v>44970</v>
       </c>
       <c r="C62" s="18">
-        <v>127.83000199999999</v>
-      </c>
-      <c r="D62" s="57">
+        <v>153.11000100000001</v>
+      </c>
+      <c r="D62" s="54">
         <f t="shared" si="0"/>
-        <v>7.2518218375683174E-2</v>
-      </c>
-      <c r="H62" s="125"/>
+        <v>0.16717494412429201</v>
+      </c>
+      <c r="H62" s="109"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
-        <v>44781</v>
+        <v>44963</v>
       </c>
       <c r="C63" s="18">
-        <v>137.10000600000001</v>
-      </c>
-      <c r="D63" s="57">
+        <v>131.179993</v>
+      </c>
+      <c r="D63" s="54">
         <f t="shared" si="0"/>
-        <v>-7.8118209564483898E-2</v>
-      </c>
-      <c r="H63" s="121" t="s">
+        <v>-6.8390065597472738E-2</v>
+      </c>
+      <c r="H63" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="I63" s="126">
+      <c r="I63" s="110">
         <v>200</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
-        <v>44788</v>
+        <v>44956</v>
       </c>
       <c r="C64" s="18">
-        <v>126.389999</v>
-      </c>
-      <c r="D64" s="57">
+        <v>140.80999800000001</v>
+      </c>
+      <c r="D64" s="54">
         <f t="shared" si="0"/>
-        <v>-6.7093876628640525E-2</v>
-      </c>
-      <c r="H64" s="127" t="s">
+        <v>8.5324437901786787E-2</v>
+      </c>
+      <c r="H64" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="I64" s="128">
+      <c r="I64" s="112">
         <f>I63*(1-I60)</f>
         <v>216</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
-        <v>44795</v>
+        <v>44949</v>
       </c>
       <c r="C65" s="18">
-        <v>117.910004</v>
-      </c>
-      <c r="D65" s="57">
+        <v>129.740005</v>
+      </c>
+      <c r="D65" s="54">
         <f t="shared" si="0"/>
-        <v>-6.0300235423620174E-2</v>
-      </c>
-      <c r="H65" s="123" t="s">
+        <v>0.1091733255606282</v>
+      </c>
+      <c r="H65" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="I65" s="129">
+      <c r="I65" s="113">
         <f>I63*(1+I61)</f>
         <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
-        <v>44802</v>
+        <v>44942</v>
       </c>
       <c r="C66" s="18">
-        <v>110.800003</v>
-      </c>
-      <c r="D66" s="57">
+        <v>116.970001</v>
+      </c>
+      <c r="D66" s="54">
         <f t="shared" si="0"/>
-        <v>0.17635372266190297</v>
+        <v>8.7969299386871924E-3</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
-        <v>44809</v>
+        <v>44935</v>
       </c>
       <c r="C67" s="18">
-        <v>130.33999600000001</v>
-      </c>
-      <c r="D67" s="57">
-        <f t="shared" ref="D67:D130" si="10">C68/C67-1</f>
-        <v>2.2479730626967287E-2</v>
+        <v>115.949997</v>
+      </c>
+      <c r="D67" s="54">
+        <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
+        <v>0.15373131343283575</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
-        <v>44816</v>
+        <v>44928</v>
       </c>
       <c r="C68" s="18">
-        <v>133.270004</v>
-      </c>
-      <c r="D68" s="57">
+        <v>100.5</v>
+      </c>
+      <c r="D68" s="54">
         <f t="shared" si="10"/>
-        <v>-0.1038493553283002</v>
+        <v>-0.17622950819672134</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
-        <v>44823</v>
+        <v>44921</v>
       </c>
       <c r="C69" s="18">
-        <v>119.43</v>
-      </c>
-      <c r="D69" s="57">
+        <v>122</v>
+      </c>
+      <c r="D69" s="54">
         <f t="shared" si="10"/>
-        <v>-5.0992246504228511E-2</v>
+        <v>7.4984599083348202E-2</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
-        <v>44830</v>
+        <v>44914</v>
       </c>
       <c r="C70" s="18">
-        <v>113.339996</v>
-      </c>
-      <c r="D70" s="57">
+        <v>113.489998</v>
+      </c>
+      <c r="D70" s="54">
         <f t="shared" si="10"/>
-        <v>-3.6262512308541162E-2</v>
+        <v>-7.4608619329815884E-2</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
-        <v>44837</v>
+        <v>44907</v>
       </c>
       <c r="C71" s="18">
-        <v>109.230003</v>
-      </c>
-      <c r="D71" s="57">
+        <v>122.639999</v>
+      </c>
+      <c r="D71" s="54">
         <f t="shared" si="10"/>
-        <v>-0.16240963574815614</v>
+        <v>0.11668565763766892</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
-        <v>44844</v>
+        <v>44900</v>
       </c>
       <c r="C72" s="18">
-        <v>91.489998</v>
-      </c>
-      <c r="D72" s="57">
+        <v>109.824997</v>
+      </c>
+      <c r="D72" s="54">
         <f t="shared" si="10"/>
-        <v>8.7769146087422589E-2</v>
+        <v>1.6239446654945811E-2</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
-        <v>44851</v>
+        <v>44893</v>
       </c>
       <c r="C73" s="18">
-        <v>99.519997000000004</v>
-      </c>
-      <c r="D73" s="57">
+        <v>108.07</v>
+      </c>
+      <c r="D73" s="54">
         <f t="shared" si="10"/>
-        <v>7.89791020592574E-2</v>
+        <v>0.10467134611731899</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="C74" s="18">
-        <v>107.379997</v>
-      </c>
-      <c r="D74" s="57">
+        <v>97.830001999999993</v>
+      </c>
+      <c r="D74" s="54">
         <f t="shared" si="10"/>
-        <v>-0.24576270941784439</v>
+        <v>1.0953860006836624E-2</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
-        <v>44865</v>
+        <v>44879</v>
       </c>
       <c r="C75" s="18">
-        <v>80.989998</v>
-      </c>
-      <c r="D75" s="57">
+        <v>96.769997000000004</v>
+      </c>
+      <c r="D75" s="54">
         <f t="shared" si="10"/>
-        <v>0.17533034140833048</v>
+        <v>1.6598329307735415E-2</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -23152,937 +23014,942 @@
       <c r="C76" s="18">
         <v>95.190002000000007</v>
       </c>
-      <c r="D76" s="57">
+      <c r="D76" s="54">
         <f t="shared" si="10"/>
-        <v>1.6598329307735415E-2</v>
+        <v>0.17533034140833048</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
-        <v>44879</v>
+        <v>44865</v>
       </c>
       <c r="C77" s="18">
-        <v>96.769997000000004</v>
-      </c>
-      <c r="D77" s="57">
+        <v>80.989998</v>
+      </c>
+      <c r="D77" s="54">
         <f t="shared" si="10"/>
-        <v>1.0953860006836624E-2</v>
+        <v>-0.24576270941784439</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="C78" s="18">
-        <v>97.830001999999993</v>
-      </c>
-      <c r="D78" s="57">
+        <v>107.379997</v>
+      </c>
+      <c r="D78" s="54">
         <f t="shared" si="10"/>
-        <v>0.10467134611731899</v>
+        <v>7.89791020592574E-2</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
-        <v>44893</v>
+        <v>44851</v>
       </c>
       <c r="C79" s="18">
-        <v>108.07</v>
-      </c>
-      <c r="D79" s="57">
+        <v>99.519997000000004</v>
+      </c>
+      <c r="D79" s="54">
         <f t="shared" si="10"/>
-        <v>1.6239446654945811E-2</v>
+        <v>8.7769146087422589E-2</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
-        <v>44900</v>
+        <v>44844</v>
       </c>
       <c r="C80" s="18">
-        <v>109.824997</v>
-      </c>
-      <c r="D80" s="57">
+        <v>91.489998</v>
+      </c>
+      <c r="D80" s="54">
         <f t="shared" si="10"/>
-        <v>0.11668565763766892</v>
+        <v>-0.16240963574815614</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="C81" s="18">
-        <v>122.639999</v>
-      </c>
-      <c r="D81" s="57">
+        <v>109.230003</v>
+      </c>
+      <c r="D81" s="54">
         <f t="shared" si="10"/>
-        <v>-7.4608619329815884E-2</v>
+        <v>-3.6262512308541162E-2</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
-        <v>44914</v>
+        <v>44830</v>
       </c>
       <c r="C82" s="18">
-        <v>113.489998</v>
-      </c>
-      <c r="D82" s="57">
+        <v>113.339996</v>
+      </c>
+      <c r="D82" s="54">
         <f t="shared" si="10"/>
-        <v>7.4984599083348202E-2</v>
+        <v>-5.0992246504228511E-2</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
-        <v>44921</v>
+        <v>44823</v>
       </c>
       <c r="C83" s="18">
-        <v>122</v>
-      </c>
-      <c r="D83" s="57">
+        <v>119.43</v>
+      </c>
+      <c r="D83" s="54">
         <f t="shared" si="10"/>
-        <v>-0.17622950819672134</v>
+        <v>-0.1038493553283002</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
-        <v>44928</v>
+        <v>44816</v>
       </c>
       <c r="C84" s="18">
-        <v>100.5</v>
-      </c>
-      <c r="D84" s="57">
+        <v>133.270004</v>
+      </c>
+      <c r="D84" s="54">
         <f t="shared" si="10"/>
-        <v>0.15373131343283575</v>
+        <v>2.2479730626967287E-2</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
-        <v>44935</v>
+        <v>44809</v>
       </c>
       <c r="C85" s="18">
-        <v>115.949997</v>
-      </c>
-      <c r="D85" s="57">
+        <v>130.33999600000001</v>
+      </c>
+      <c r="D85" s="54">
         <f t="shared" si="10"/>
-        <v>8.7969299386871924E-3</v>
+        <v>0.17635372266190297</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
-        <v>44942</v>
+        <v>44802</v>
       </c>
       <c r="C86" s="18">
-        <v>116.970001</v>
-      </c>
-      <c r="D86" s="57">
+        <v>110.800003</v>
+      </c>
+      <c r="D86" s="54">
         <f t="shared" si="10"/>
-        <v>0.1091733255606282</v>
+        <v>-6.0300235423620174E-2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
-        <v>44949</v>
+        <v>44795</v>
       </c>
       <c r="C87" s="18">
-        <v>129.740005</v>
-      </c>
-      <c r="D87" s="57">
+        <v>117.910004</v>
+      </c>
+      <c r="D87" s="54">
         <f t="shared" si="10"/>
-        <v>8.5324437901786787E-2</v>
+        <v>-6.7093876628640525E-2</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
-        <v>44956</v>
+        <v>44788</v>
       </c>
       <c r="C88" s="18">
-        <v>140.80999800000001</v>
-      </c>
-      <c r="D88" s="57">
+        <v>126.389999</v>
+      </c>
+      <c r="D88" s="54">
         <f t="shared" si="10"/>
-        <v>-6.8390065597472738E-2</v>
+        <v>-7.8118209564483898E-2</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
-        <v>44963</v>
+        <v>44781</v>
       </c>
       <c r="C89" s="18">
-        <v>131.179993</v>
-      </c>
-      <c r="D89" s="57">
+        <v>137.10000600000001</v>
+      </c>
+      <c r="D89" s="54">
         <f t="shared" si="10"/>
-        <v>0.16717494412429201</v>
+        <v>7.2518218375683174E-2</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
-        <v>44970</v>
+        <v>44774</v>
       </c>
       <c r="C90" s="18">
-        <v>153.11000100000001</v>
-      </c>
-      <c r="D90" s="57">
+        <v>127.83000199999999</v>
+      </c>
+      <c r="D90" s="54">
         <f t="shared" si="10"/>
-        <v>1.0384664552382628E-2</v>
+        <v>0.24432977968471392</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
-        <v>44977</v>
+        <v>44767</v>
       </c>
       <c r="C91" s="18">
-        <v>154.699997</v>
-      </c>
-      <c r="D91" s="57">
+        <v>102.730003</v>
+      </c>
+      <c r="D91" s="54">
         <f t="shared" si="10"/>
-        <v>1.0213329221977929E-2</v>
+        <v>-2.9193265294025217E-4</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="12">
-        <v>44984</v>
+        <v>44760</v>
       </c>
       <c r="C92" s="18">
-        <v>156.279999</v>
-      </c>
-      <c r="D92" s="57">
+        <v>102.760002</v>
+      </c>
+      <c r="D92" s="54">
         <f t="shared" si="10"/>
-        <v>-0.17167905152085394</v>
+        <v>0.1132055489807291</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
-        <v>44991</v>
+        <v>44753</v>
       </c>
       <c r="C93" s="18">
-        <v>129.449997</v>
-      </c>
-      <c r="D93" s="57">
+        <v>92.309997999999993</v>
+      </c>
+      <c r="D93" s="54">
         <f t="shared" si="10"/>
-        <v>4.882199417895694E-2</v>
+        <v>-0.19189358683637614</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="12">
-        <v>44998</v>
+        <v>44746</v>
       </c>
       <c r="C94" s="18">
-        <v>135.770004</v>
-      </c>
-      <c r="D94" s="57">
+        <v>114.230003</v>
+      </c>
+      <c r="D94" s="54">
         <f t="shared" si="10"/>
-        <v>1.4722692355539913E-4</v>
+        <v>5.0004613935061837E-2</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
-        <v>45005</v>
+        <v>44739</v>
       </c>
       <c r="C95" s="18">
-        <v>135.78999300000001</v>
-      </c>
-      <c r="D95" s="57">
+        <v>108.790001</v>
+      </c>
+      <c r="D95" s="54">
         <f t="shared" si="10"/>
-        <v>5.1255669480740007E-2</v>
+        <v>-0.11090225473273729</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
-        <v>45012</v>
+        <v>44732</v>
       </c>
       <c r="C96" s="18">
-        <v>142.75</v>
-      </c>
-      <c r="D96" s="57">
+        <v>122.360001</v>
+      </c>
+      <c r="D96" s="54">
         <f t="shared" si="10"/>
-        <v>-6.2206690017513222E-2</v>
+        <v>0.25368856052640498</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
-        <v>45019</v>
+        <v>44725</v>
       </c>
       <c r="C97" s="18">
-        <v>133.86999499999999</v>
-      </c>
-      <c r="D97" s="57">
+        <v>97.599997999999999</v>
+      </c>
+      <c r="D97" s="54">
         <f t="shared" si="10"/>
-        <v>-2.2036282290142761E-2</v>
+        <v>2.5680534682701595E-3</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="12">
-        <v>45026</v>
+        <v>44718</v>
       </c>
       <c r="C98" s="18">
-        <v>130.91999799999999</v>
-      </c>
-      <c r="D98" s="57">
+        <v>97.349997999999999</v>
+      </c>
+      <c r="D98" s="54">
         <f t="shared" si="10"/>
-        <v>-4.5828827464540201E-3</v>
+        <v>-0.16142646778969649</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="12">
-        <v>45033</v>
+        <v>44711</v>
       </c>
       <c r="C99" s="18">
-        <v>130.320007</v>
-      </c>
-      <c r="D99" s="57">
+        <v>116.089996</v>
+      </c>
+      <c r="D99" s="54">
         <f t="shared" si="10"/>
-        <v>-6.4456787513831215E-2</v>
+        <v>9.3904354509966037E-3</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="12">
-        <v>45040</v>
+        <v>44704</v>
       </c>
       <c r="C100" s="18">
-        <v>121.91999800000001</v>
-      </c>
-      <c r="D100" s="57">
+        <v>115.010002</v>
+      </c>
+      <c r="D100" s="54">
         <f t="shared" si="10"/>
-        <v>-4.6505889870503525E-2</v>
+        <v>6.4759343609679387E-3</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="12">
-        <v>45047</v>
+        <v>44697</v>
       </c>
       <c r="C101" s="18">
-        <v>116.25</v>
-      </c>
-      <c r="D101" s="57">
+        <v>114.269997</v>
+      </c>
+      <c r="D101" s="54">
         <f t="shared" si="10"/>
-        <v>0.1277419870967742</v>
+        <v>3.5241892604871206E-2</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
-        <v>45054</v>
+        <v>44690</v>
       </c>
       <c r="C102" s="18">
-        <v>131.10000600000001</v>
-      </c>
-      <c r="D102" s="57">
+        <v>110.379997</v>
+      </c>
+      <c r="D102" s="54">
         <f t="shared" si="10"/>
-        <v>0.14248659149565568</v>
+        <v>-0.10659656560267339</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
-        <v>45061</v>
+        <v>44683</v>
       </c>
       <c r="C103" s="18">
-        <v>149.779999</v>
-      </c>
-      <c r="D103" s="57">
+        <v>123.550003</v>
+      </c>
+      <c r="D103" s="54">
         <f t="shared" si="10"/>
-        <v>0.11630389982844092</v>
+        <v>-4.5208587876750528E-2</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="12">
-        <v>45068</v>
+        <v>44676</v>
       </c>
       <c r="C104" s="18">
-        <v>167.199997</v>
-      </c>
-      <c r="D104" s="57">
+        <v>129.39999399999999</v>
+      </c>
+      <c r="D104" s="54">
         <f t="shared" si="10"/>
-        <v>4.6650736482967803E-2</v>
+        <v>-5.9798086906993952E-2</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
-        <v>45075</v>
+        <v>44669</v>
       </c>
       <c r="C105" s="18">
-        <v>175</v>
-      </c>
-      <c r="D105" s="57">
+        <v>137.63000500000001</v>
+      </c>
+      <c r="D105" s="54">
         <f t="shared" si="10"/>
-        <v>-1.5999942857143346E-3</v>
+        <v>3.3535540330038582E-3</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="12">
-        <v>45082</v>
+        <v>44662</v>
       </c>
       <c r="C106" s="18">
-        <v>174.720001</v>
-      </c>
-      <c r="D106" s="57">
+        <v>137.16999799999999</v>
+      </c>
+      <c r="D106" s="54">
         <f t="shared" si="10"/>
-        <v>2.3408865479573882E-2</v>
+        <v>-2.5504384253494883E-2</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="12">
-        <v>45089</v>
+        <v>44655</v>
       </c>
       <c r="C107" s="18">
-        <v>178.80999800000001</v>
-      </c>
-      <c r="D107" s="57">
+        <v>140.759995</v>
+      </c>
+      <c r="D107" s="54">
         <f t="shared" si="10"/>
-        <v>-5.1954555695481908E-2</v>
+        <v>-0.14892075789903103</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="12">
-        <v>45096</v>
+        <v>44648</v>
       </c>
       <c r="C108" s="18">
-        <v>169.520004</v>
-      </c>
-      <c r="D108" s="57">
+        <v>165.38999899999999</v>
+      </c>
+      <c r="D108" s="54">
         <f t="shared" si="10"/>
-        <v>1.0028297309384149E-2</v>
+        <v>9.9302108992398219E-2</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
-        <v>45103</v>
+        <v>44641</v>
       </c>
       <c r="C109" s="18">
-        <v>171.220001</v>
-      </c>
-      <c r="D109" s="57">
+        <v>150.449997</v>
+      </c>
+      <c r="D109" s="54">
         <f t="shared" si="10"/>
-        <v>-5.4666510602344842E-2</v>
+        <v>-0.11759532551319651</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
-        <v>45110</v>
+        <v>44634</v>
       </c>
       <c r="C110" s="18">
-        <v>161.86000100000001</v>
-      </c>
-      <c r="D110" s="57">
+        <v>170.5</v>
+      </c>
+      <c r="D110" s="54">
         <f t="shared" si="10"/>
-        <v>7.8462850126882255E-2</v>
+        <v>0.39685402911443601</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="12">
-        <v>45117</v>
+        <v>44627</v>
       </c>
       <c r="C111" s="18">
-        <v>174.55999800000001</v>
-      </c>
-      <c r="D111" s="57">
+        <v>122.05999799999999</v>
+      </c>
+      <c r="D111" s="54">
         <f t="shared" si="10"/>
-        <v>-7.676426531581515E-3</v>
+        <v>-0.10190571401940351</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="12">
-        <v>45124</v>
+        <v>44620</v>
       </c>
       <c r="C112" s="18">
-        <v>173.220001</v>
-      </c>
-      <c r="D112" s="57">
+        <v>135.91000399999999</v>
+      </c>
+      <c r="D112" s="54">
         <f t="shared" si="10"/>
-        <v>3.4695733548691043E-2</v>
+        <v>-0.12451687952470758</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="12">
-        <v>45131</v>
+        <v>44613</v>
       </c>
       <c r="C113" s="18">
-        <v>179.229996</v>
-      </c>
-      <c r="D113" s="57">
+        <v>155.240005</v>
+      </c>
+      <c r="D113" s="54">
         <f t="shared" si="10"/>
-        <v>-0.10176862917521912</v>
+        <v>-0.20291636380458933</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="12">
-        <v>45138</v>
+        <v>44606</v>
       </c>
       <c r="C114" s="18">
-        <v>160.990005</v>
-      </c>
-      <c r="D114" s="57">
+        <v>194.759995</v>
+      </c>
+      <c r="D114" s="54">
         <f t="shared" si="10"/>
-        <v>-3.1989619479793063E-2</v>
+        <v>-0.11031934840218627</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="12">
-        <v>45145</v>
+        <v>44599</v>
       </c>
       <c r="C115" s="18">
-        <v>155.83999600000001</v>
-      </c>
-      <c r="D115" s="57">
+        <v>218.91000399999999</v>
+      </c>
+      <c r="D115" s="54">
         <f t="shared" si="10"/>
-        <v>3.3560133048258001E-2</v>
+        <v>0.1736542960829015</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
-        <v>45152</v>
+        <v>44592</v>
       </c>
       <c r="C116" s="18">
-        <v>161.070007</v>
-      </c>
-      <c r="D116" s="57">
+        <v>186.520004</v>
+      </c>
+      <c r="D116" s="54">
         <f t="shared" si="10"/>
-        <v>5.0412830738872483E-2</v>
+        <v>-1.039893910014722E-2</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
-        <v>45159</v>
+        <v>44585</v>
       </c>
       <c r="C117" s="18">
-        <v>169.19000199999999</v>
-      </c>
-      <c r="D117" s="57">
+        <v>188.479996</v>
+      </c>
+      <c r="D117" s="54">
         <f t="shared" si="10"/>
-        <v>4.3737773583098827E-2</v>
+        <v>-5.0478609571788402E-2</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="12">
-        <v>45166</v>
+        <v>44578</v>
       </c>
       <c r="C118" s="18">
-        <v>176.58999600000001</v>
-      </c>
-      <c r="D118" s="57">
+        <v>198.5</v>
+      </c>
+      <c r="D118" s="54">
         <f t="shared" si="10"/>
-        <v>-3.0522674681979223E-2</v>
+        <v>-7.9484321459303953E-2</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="12">
-        <v>45173</v>
+        <v>44571</v>
       </c>
       <c r="C119" s="18">
-        <v>171.199997</v>
-      </c>
-      <c r="D119" s="57">
+        <v>215.63999899999999</v>
+      </c>
+      <c r="D119" s="54">
         <f t="shared" si="10"/>
-        <v>-4.5677524164909777E-2</v>
+        <v>-9.1583139026389482E-2</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
-        <v>45180</v>
+        <v>44564</v>
       </c>
       <c r="C120" s="18">
-        <v>163.38000500000001</v>
-      </c>
-      <c r="D120" s="57">
+        <v>237.38000500000001</v>
+      </c>
+      <c r="D120" s="54">
         <f t="shared" si="10"/>
-        <v>-3.9050096736133688E-2</v>
+        <v>-0.23108316846630228</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="12">
-        <v>45187</v>
+        <v>44557</v>
       </c>
       <c r="C121" s="18">
-        <v>157</v>
-      </c>
-      <c r="D121" s="57">
+        <v>308.72000100000002</v>
+      </c>
+      <c r="D121" s="54">
         <f t="shared" si="10"/>
-        <v>1.4140133757961859E-2</v>
+        <v>1.4291835829612687E-2</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="12">
-        <v>45194</v>
+        <v>44550</v>
       </c>
       <c r="C122" s="18">
-        <v>159.220001</v>
-      </c>
-      <c r="D122" s="57">
+        <v>304.36999500000002</v>
+      </c>
+      <c r="D122" s="54">
         <f t="shared" si="10"/>
-        <v>-3.7684084677276353E-3</v>
+        <v>4.2041833572417309E-2</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
-        <v>45201</v>
+        <v>44543</v>
       </c>
       <c r="C123" s="18">
-        <v>158.61999499999999</v>
-      </c>
-      <c r="D123" s="57">
+        <v>292.08999599999999</v>
+      </c>
+      <c r="D123" s="54">
         <f t="shared" si="10"/>
-        <v>-0.11688307643686402</v>
+        <v>-5.1471084942059653E-2</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
-        <v>45208</v>
+        <v>44536</v>
       </c>
       <c r="C124" s="18">
-        <v>140.08000200000001</v>
-      </c>
-      <c r="D124" s="57">
+        <v>307.94000199999999</v>
+      </c>
+      <c r="D124" s="54">
         <f t="shared" si="10"/>
-        <v>-5.7609986327670115E-2</v>
+        <v>0.11669564415812128</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
-        <v>45215</v>
+        <v>44529</v>
       </c>
       <c r="C125" s="18">
-        <v>132.009995</v>
-      </c>
-      <c r="D125" s="57">
+        <v>275.76001000000002</v>
+      </c>
+      <c r="D125" s="54">
         <f t="shared" si="10"/>
-        <v>-2.0983183886947421E-2</v>
+        <v>-0.18741153291835499</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="12">
-        <v>45222</v>
+        <v>44522</v>
       </c>
       <c r="C126" s="18">
-        <v>129.240005</v>
-      </c>
-      <c r="D126" s="57">
+        <v>339.35998499999999</v>
+      </c>
+      <c r="D126" s="54">
         <f t="shared" si="10"/>
-        <v>2.1046130414495101E-2</v>
+        <v>-8.5899030303030366E-2</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="12">
-        <v>45229</v>
+        <v>44515</v>
       </c>
       <c r="C127" s="18">
-        <v>131.96000699999999</v>
-      </c>
-      <c r="D127" s="57">
+        <v>371.25</v>
+      </c>
+      <c r="D127" s="54">
         <f t="shared" si="10"/>
-        <v>6.1836826062005246E-2</v>
+        <v>2.0141752962621551E-2</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="12">
-        <v>45236</v>
+        <v>44508</v>
       </c>
       <c r="C128" s="18">
-        <v>140.11999499999999</v>
-      </c>
-      <c r="D128" s="57">
+        <v>363.92001299999998</v>
+      </c>
+      <c r="D128" s="54">
         <f t="shared" si="10"/>
-        <v>0.21110478914875785</v>
+        <v>3.7577759524940468E-2</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="12">
-        <v>45243</v>
+        <v>44501</v>
       </c>
       <c r="C129" s="18">
-        <v>169.699997</v>
-      </c>
-      <c r="D129" s="57">
+        <v>350.73998999999998</v>
+      </c>
+      <c r="D129" s="54">
         <f t="shared" si="10"/>
-        <v>3.1526258659863249E-2</v>
+        <v>-5.6719462489183359E-2</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
-        <v>45250</v>
+        <v>44494</v>
       </c>
       <c r="C130" s="18">
-        <v>175.050003</v>
-      </c>
-      <c r="D130" s="57">
+        <v>371.82998700000002</v>
+      </c>
+      <c r="D130" s="54">
         <f t="shared" si="10"/>
-        <v>7.5406568259241968E-3</v>
+        <v>-1.9590842177112266E-2</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
-        <v>45257</v>
+        <v>44487</v>
       </c>
       <c r="C131" s="18">
-        <v>176.36999499999999</v>
-      </c>
-      <c r="D131" s="57">
-        <f t="shared" ref="D131:D157" si="11">C132/C131-1</f>
-        <v>-7.5976415376095563E-3</v>
+        <v>379.26001000000002</v>
+      </c>
+      <c r="D131" s="54">
+        <f t="shared" ref="D131:D149" si="11">C131/C132-1</f>
+        <v>5.7288671951152947E-2</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
-        <v>45264</v>
+        <v>44480</v>
       </c>
       <c r="C132" s="18">
-        <v>175.029999</v>
-      </c>
-      <c r="D132" s="57">
+        <v>358.709991</v>
+      </c>
+      <c r="D132" s="54">
         <f t="shared" si="11"/>
-        <v>8.0214866481259639E-2</v>
+        <v>5.6272039641836802E-2</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="12">
-        <v>45271</v>
+        <v>44473</v>
       </c>
       <c r="C133" s="18">
-        <v>189.070007</v>
-      </c>
-      <c r="D133" s="57">
+        <v>339.60000600000001</v>
+      </c>
+      <c r="D133" s="54">
         <f t="shared" si="11"/>
-        <v>2.0627280137561765E-3</v>
+        <v>2.0095527078243025E-2</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="12">
-        <v>45278</v>
+        <v>44466</v>
       </c>
       <c r="C134" s="18">
-        <v>189.46000699999999</v>
-      </c>
-      <c r="D134" s="57">
+        <v>332.91000400000001</v>
+      </c>
+      <c r="D134" s="54">
         <f t="shared" si="11"/>
-        <v>-8.7090094956028263E-3</v>
+        <v>-9.2863530146966577E-2</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="12">
-        <v>45285</v>
+        <v>44459</v>
       </c>
       <c r="C135" s="18">
-        <v>187.80999800000001</v>
-      </c>
-      <c r="D135" s="57">
+        <v>366.98998999999998</v>
+      </c>
+      <c r="D135" s="54">
         <f t="shared" si="11"/>
-        <v>-5.8676349062098399E-2</v>
+        <v>-1.9136720873500823E-2</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="12">
-        <v>45292</v>
+        <v>44452</v>
       </c>
       <c r="C136" s="18">
-        <v>176.78999300000001</v>
-      </c>
-      <c r="D136" s="57">
+        <v>374.14999399999999</v>
+      </c>
+      <c r="D136" s="54">
         <f t="shared" si="11"/>
-        <v>7.8737567459488345E-2</v>
+        <v>5.8606688553897168E-3</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
-        <v>45299</v>
+        <v>44445</v>
       </c>
       <c r="C137" s="18">
-        <v>190.71000699999999</v>
-      </c>
-      <c r="D137" s="57">
+        <v>371.97000100000002</v>
+      </c>
+      <c r="D137" s="54">
         <f t="shared" si="11"/>
-        <v>2.5798321112745937E-2</v>
+        <v>-2.0641892107326698E-2</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
-        <v>45306</v>
+        <v>44438</v>
       </c>
       <c r="C138" s="18">
-        <v>195.63000500000001</v>
-      </c>
-      <c r="D138" s="57">
+        <v>379.80999800000001</v>
+      </c>
+      <c r="D138" s="54">
         <f t="shared" si="11"/>
-        <v>6.6451973969943845E-2</v>
+        <v>6.3327629198311142E-2</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12">
-        <v>45313</v>
+        <v>44431</v>
       </c>
       <c r="C139" s="18">
-        <v>208.63000500000001</v>
-      </c>
-      <c r="D139" s="57">
+        <v>357.19000199999999</v>
+      </c>
+      <c r="D139" s="54">
         <f t="shared" si="11"/>
-        <v>2.6026903464820395E-2</v>
+        <v>1.3937785323997476E-2</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="12">
-        <v>45320</v>
+        <v>44424</v>
       </c>
       <c r="C140" s="18">
-        <v>214.05999800000001</v>
-      </c>
-      <c r="D140" s="57">
+        <v>352.27999899999998</v>
+      </c>
+      <c r="D140" s="54">
         <f t="shared" si="11"/>
-        <v>0.10212090163618504</v>
+        <v>0.31496829746102928</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="12">
-        <v>45327</v>
+        <v>44417</v>
       </c>
       <c r="C141" s="18">
-        <v>235.91999799999999</v>
-      </c>
-      <c r="D141" s="57">
+        <v>267.89999399999999</v>
+      </c>
+      <c r="D141" s="54">
         <f t="shared" si="11"/>
-        <v>-4.5015238597958862E-2</v>
+        <v>0.18539820353982295</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="12">
-        <v>45334</v>
+        <v>44410</v>
       </c>
       <c r="C142" s="18">
-        <v>225.300003</v>
-      </c>
-      <c r="D142" s="57">
+        <v>226</v>
+      </c>
+      <c r="D142" s="54">
         <f t="shared" si="11"/>
-        <v>-7.7230398439009362E-2</v>
+        <v>2.1284319892404646E-2</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="12">
-        <v>45341</v>
+        <v>44403</v>
       </c>
       <c r="C143" s="18">
-        <v>207.89999399999999</v>
-      </c>
-      <c r="D143" s="57">
+        <v>221.28999300000001</v>
+      </c>
+      <c r="D143" s="54">
         <f t="shared" si="11"/>
-        <v>0.10110632326425173</v>
+        <v>7.9832140530059048E-2</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
-        <v>45348</v>
+        <v>44396</v>
       </c>
       <c r="C144" s="18">
-        <v>228.91999799999999</v>
-      </c>
-      <c r="D144" s="57">
+        <v>204.929993</v>
+      </c>
+      <c r="D144" s="54">
         <f t="shared" si="11"/>
-        <v>-3.6999829958062502E-2</v>
+        <v>2.9902488288320095E-2</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
-        <v>45355</v>
+        <v>44389</v>
       </c>
       <c r="C145" s="18">
-        <v>220.449997</v>
-      </c>
-      <c r="D145" s="57">
+        <v>198.979996</v>
+      </c>
+      <c r="D145" s="54">
         <f t="shared" si="11"/>
-        <v>-1.5649793816962521E-2</v>
+        <v>-0.14247542663906221</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12">
-        <v>45362</v>
+        <v>44382</v>
       </c>
       <c r="C146" s="18">
-        <v>217</v>
-      </c>
-      <c r="D146" s="57">
+        <v>232.03999300000001</v>
+      </c>
+      <c r="D146" s="54">
         <f t="shared" si="11"/>
-        <v>5.0691244239631228E-2</v>
+        <v>1.2258417524031229E-2</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12">
-        <v>45369</v>
+        <v>44375</v>
       </c>
       <c r="C147" s="18">
-        <v>228</v>
-      </c>
-      <c r="D147" s="57">
+        <v>229.229996</v>
+      </c>
+      <c r="D147" s="54">
         <f t="shared" si="11"/>
-        <v>-9.3421271929825522E-3</v>
+        <v>-1.3512927949238862E-2</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12">
-        <v>45376</v>
+        <v>44368</v>
       </c>
       <c r="C148" s="18">
-        <v>225.86999499999999</v>
-      </c>
-      <c r="D148" s="57">
+        <v>232.36999499999999</v>
+      </c>
+      <c r="D148" s="54">
         <f t="shared" si="11"/>
-        <v>-3.9270355498081888E-2</v>
+        <v>-6.0212465274889215E-4</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12">
-        <v>45383</v>
+        <v>44361</v>
       </c>
       <c r="C149" s="18">
-        <v>217</v>
-      </c>
-      <c r="D149" s="57">
+        <v>232.509995</v>
+      </c>
+      <c r="D149" s="54">
         <f t="shared" si="11"/>
-        <v>-5.7603686635944173E-3</v>
+        <v>0.22819712353491228</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="12">
-        <v>45390</v>
+        <v>44354</v>
       </c>
       <c r="C150" s="18">
-        <v>215.75</v>
-      </c>
-      <c r="D150" s="57"/>
+        <v>189.30999800000001</v>
+      </c>
+      <c r="D150" s="54"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="12"/>
       <c r="C151" s="17"/>
-      <c r="D151" s="57"/>
+      <c r="D151" s="54"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12"/>
       <c r="C152" s="17"/>
-      <c r="D152" s="57"/>
+      <c r="D152" s="54"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12"/>
       <c r="C153" s="17"/>
-      <c r="D153" s="57"/>
+      <c r="D153" s="54"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="12"/>
       <c r="C154" s="17"/>
-      <c r="D154" s="57"/>
+      <c r="D154" s="54"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="12"/>
       <c r="C155" s="17"/>
-      <c r="D155" s="57"/>
+      <c r="D155" s="54"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="12"/>
       <c r="C156" s="17"/>
-      <c r="D156" s="57"/>
+      <c r="D156" s="54"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="12"/>
       <c r="C157" s="17"/>
-      <c r="D157" s="57"/>
+      <c r="D157" s="54"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="12"/>
       <c r="C158" s="17"/>
-      <c r="D158" s="57"/>
+      <c r="D158" s="54"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:C1" xr:uid="{459034C9-60E4-4481-A5AB-C7748C68FD5F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C150">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H17:I17"/>
